--- a/Load/ontology/Microbiome/doc/microbiome_terms.xlsx
+++ b/Load/ontology/Microbiome/doc/microbiome_terms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="984" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13920" tabRatio="984" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IRI mappings(webProtege)" sheetId="13" r:id="rId1"/>
@@ -16,8 +16,7 @@
     <sheet name="ontology mapping" sheetId="16" r:id="rId7"/>
     <sheet name="ToDo in ontology" sheetId="17" r:id="rId8"/>
     <sheet name="annotationUpdates" sheetId="18" r:id="rId9"/>
-    <sheet name="Column names by data set(Penn)" sheetId="21" r:id="rId10"/>
-    <sheet name="new terms(Penn)" sheetId="22" r:id="rId11"/>
+    <sheet name="Column names by data set" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -127,107 +126,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: Dan Beiting
-If possible, create a short but meaningful (i.e. human readable), name for the column name on the left.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: Dan Beiting</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-Enter some text that describes the type of metadata collected.  This can be as long and detailed as you like.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: Dan Beiting</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-If this is measurement data, please indicate the unit of measurement (i.e. years for Age, Kg for weight, etc)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>Microsoft Office User: Dan Beiting</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t xml:space="preserve">
-If abbreviations were used in the values, please provide a full meaning of these abbreviations.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12458" uniqueCount="3237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11903" uniqueCount="3010">
   <si>
     <t>Name</t>
   </si>
@@ -8697,270 +8597,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Grice_DFU_mapping.tsv</t>
-  </si>
-  <si>
     <t>SubjectID</t>
   </si>
   <si>
-    <t>DiabType</t>
-  </si>
-  <si>
-    <t>DiabDur</t>
-  </si>
-  <si>
-    <t>UlcerDur</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>race_cat</t>
-  </si>
-  <si>
-    <t>enrolled_new_criteria</t>
-  </si>
-  <si>
-    <t>days_to_heal</t>
-  </si>
-  <si>
-    <t>visit_healed</t>
-  </si>
-  <si>
-    <t>EOSReas</t>
-  </si>
-  <si>
-    <t>ulcerloc_cat</t>
-  </si>
-  <si>
-    <t>TBPI</t>
-  </si>
-  <si>
-    <t>ABI</t>
-  </si>
-  <si>
-    <t>monofil_np</t>
-  </si>
-  <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>hgba1c</t>
-  </si>
-  <si>
-    <t>crp</t>
-  </si>
-  <si>
-    <t>glucose</t>
-  </si>
-  <si>
-    <t>esr</t>
-  </si>
-  <si>
-    <t>wbc</t>
-  </si>
-  <si>
-    <t>meantisox</t>
-  </si>
-  <si>
-    <t>topical_tx_antibiotic</t>
-  </si>
-  <si>
-    <t>topical_tx_other</t>
-  </si>
-  <si>
-    <t>surarea</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>volume_heal_rate</t>
-  </si>
-  <si>
-    <t>surarea_heal_rate</t>
-  </si>
-  <si>
-    <t>wd_clinical</t>
-  </si>
-  <si>
-    <t>wd_size</t>
-  </si>
-  <si>
     <t>SampleID</t>
   </si>
   <si>
-    <t>WellPosition</t>
-  </si>
-  <si>
-    <t>Plate</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>num_raw_samples</t>
-  </si>
-  <si>
-    <t>idx.last.visit</t>
-  </si>
-  <si>
-    <t>last.visit</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
-    <t>healed</t>
-  </si>
-  <si>
-    <t>idx.b4.healing</t>
-  </si>
-  <si>
-    <t>v.b4.healing</t>
-  </si>
-  <si>
-    <t>v.wd</t>
-  </si>
-  <si>
-    <t>v.b4.wd.eg</t>
-  </si>
-  <si>
-    <t>v.b4.wd</t>
-  </si>
-  <si>
-    <t>amputation</t>
-  </si>
-  <si>
-    <t>v.b4.amp</t>
-  </si>
-  <si>
-    <t>v.osteo</t>
-  </si>
-  <si>
-    <t>v.b4.osteo</t>
-  </si>
-  <si>
-    <t>v.comp</t>
-  </si>
-  <si>
-    <t>v.b4.comp</t>
-  </si>
-  <si>
-    <t>v.b4.comp.na</t>
-  </si>
-  <si>
-    <t>v.b4.comp.eg</t>
-  </si>
-  <si>
-    <t>heals.12wks</t>
-  </si>
-  <si>
-    <t>heals.4wks</t>
-  </si>
-  <si>
-    <t>comp</t>
-  </si>
-  <si>
-    <t>comp.12wks</t>
-  </si>
-  <si>
-    <t>comp.4wks</t>
-  </si>
-  <si>
-    <t>Outcome</t>
-  </si>
-  <si>
-    <t>has_raw_sample</t>
-  </si>
-  <si>
-    <t>SubjOrder</t>
-  </si>
-  <si>
-    <t>log_burden</t>
-  </si>
-  <si>
-    <t>log_strep</t>
-  </si>
-  <si>
-    <t>Offloading</t>
-  </si>
-  <si>
-    <t>necrotic</t>
-  </si>
-  <si>
-    <t>v.abx</t>
-  </si>
-  <si>
-    <t>v.b4.abx</t>
-  </si>
-  <si>
-    <t>v.post.abx</t>
-  </si>
-  <si>
-    <t>antibiotics</t>
-  </si>
-  <si>
-    <t>RawReads</t>
-  </si>
-  <si>
-    <t>Reads</t>
-  </si>
-  <si>
-    <t>has_sample</t>
-  </si>
-  <si>
-    <t>Staphylococcus</t>
-  </si>
-  <si>
-    <t>Streptococcus</t>
-  </si>
-  <si>
-    <t>Corynebacterium</t>
-  </si>
-  <si>
-    <t>Anaerococcus</t>
-  </si>
-  <si>
-    <t>Proteobacteria</t>
-  </si>
-  <si>
-    <t>Firmicutes</t>
-  </si>
-  <si>
-    <t>Anaerobes</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>Richness</t>
-  </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>bc</t>
-  </si>
-  <si>
-    <t>jc</t>
-  </si>
-  <si>
-    <t>uuf</t>
-  </si>
-  <si>
-    <t>wuf</t>
-  </si>
-  <si>
-    <t>dmn</t>
-  </si>
-  <si>
-    <t>unit is not clear, days?</t>
-  </si>
-  <si>
     <t>ciara_010_map_v3.txt</t>
   </si>
   <si>
@@ -9099,30 +8747,9 @@
     <t>Alopecia</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001616</t>
-  </si>
-  <si>
-    <t>specimen identifier</t>
-  </si>
-  <si>
     <t>mapped term</t>
   </si>
   <si>
-    <t>ontology IRI</t>
-  </si>
-  <si>
-    <t>Age in days?</t>
-  </si>
-  <si>
-    <t>animal cage</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0400171</t>
-  </si>
-  <si>
-    <t>Cage Identifier</t>
-  </si>
-  <si>
     <t>values example</t>
   </si>
   <si>
@@ -9132,27 +8759,6 @@
     <t>Isotype, aIL-12</t>
   </si>
   <si>
-    <t>is it same as subject ID?</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000196</t>
-  </si>
-  <si>
-    <t>need import to EuPath ontology</t>
-  </si>
-  <si>
-    <t>investigation identifier</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001628</t>
-  </si>
-  <si>
-    <t>ethnic group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ebi.ac.uk/efo/EFO_0001799 </t>
-  </si>
-  <si>
     <t>For each month, what was the main source of nutrition for the child?</t>
   </si>
   <si>
@@ -9183,123 +8789,57 @@
     <t>Elizabeth Grice, Charles Bradley</t>
   </si>
   <si>
-    <t>sampleID</t>
-  </si>
-  <si>
     <t>months</t>
   </si>
   <si>
-    <t>Age in months</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/MICRO_0000555</t>
-  </si>
-  <si>
     <t>Degree of hairloss</t>
   </si>
   <si>
     <t>score  0 to 5</t>
   </si>
   <si>
-    <t>add (skin symptom or sign) information</t>
-  </si>
-  <si>
     <t>Affected or Unaffected</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>what affected or not?</t>
-  </si>
-  <si>
     <t>Affected by atopic dermatitis (yes/no)</t>
   </si>
   <si>
     <t>Canine Breed</t>
   </si>
   <si>
-    <t>add under host information</t>
-  </si>
-  <si>
     <t>Epidermal Moisture content</t>
   </si>
   <si>
     <t>Corneometry Unit</t>
   </si>
   <si>
-    <t>Do we need to add phenotype/symptome or signs/clinical finding category under host information?</t>
-  </si>
-  <si>
     <t>Degree of skin readness</t>
   </si>
   <si>
     <t>score 0 to 5</t>
   </si>
   <si>
-    <t>Do we need to add phenotype/symptome or signs under host information or clinical history?</t>
-  </si>
-  <si>
     <t>score 0 to 15</t>
   </si>
   <si>
-    <t>Axillary Lesion Score before treatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add phenotype/symptome or signs under host information, </t>
-  </si>
-  <si>
-    <t>Axillary Lesion Score during treatment</t>
-  </si>
-  <si>
-    <t>Axillary Lesion Score after treatment</t>
-  </si>
-  <si>
-    <t>Groin Lesion Score</t>
-  </si>
-  <si>
-    <t>Pinna Lesion Score</t>
-  </si>
-  <si>
     <t>Degree of skin thickening</t>
   </si>
   <si>
-    <t>Do we need to category to group skin related symptome/signs/disease and other for breast?</t>
-  </si>
-  <si>
-    <t>is th mapping correct?</t>
-  </si>
-  <si>
-    <t>still no idea what it is</t>
-  </si>
-  <si>
     <t>Transepidermal water loss</t>
   </si>
   <si>
     <t> g/m2 h</t>
   </si>
   <si>
-    <t>clinical finding</t>
-  </si>
-  <si>
-    <t>Transepidermal water loss( g/m2 h)</t>
-  </si>
-  <si>
     <t>Visit Number</t>
   </si>
   <si>
     <t>Visit 1-3 (pretreatment, treated, post treatment)</t>
   </si>
   <si>
-    <t>under host information? Need change value 1,2,3 to pre-treatment, treated, and post treatment</t>
-  </si>
-  <si>
-    <t>clinical visit</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/EUPATH_0000049</t>
-  </si>
-  <si>
     <t>Elizabeth Grice, Phil Scott</t>
   </si>
   <si>
@@ -9309,27 +8849,15 @@
     <t>Cage # designated for that experiment</t>
   </si>
   <si>
-    <t>animal cage number for experiment</t>
-  </si>
-  <si>
     <t>Number assigned to each mouse in the cage</t>
   </si>
   <si>
-    <t>cage number for a mouse</t>
-  </si>
-  <si>
     <t>Is not relevant in this study</t>
   </si>
   <si>
-    <t>ignore?</t>
-  </si>
-  <si>
     <t>Describes treatment, infection status, etc.</t>
   </si>
   <si>
-    <t>study group</t>
-  </si>
-  <si>
     <t>A desgination used to identify each project in the Grice lab (not necessary to include)</t>
   </si>
   <si>
@@ -9339,9 +8867,6 @@
     <t>Number assigned to each sample on that sequence run</t>
   </si>
   <si>
-    <t>specimen identifier assigned by sequencing facility</t>
-  </si>
-  <si>
     <t>Pathology score</t>
   </si>
   <si>
@@ -9357,9 +8882,6 @@
     <t>Describes which ear was swabbed (left or right)</t>
   </si>
   <si>
-    <t>values need change to left ear, right ear</t>
-  </si>
-  <si>
     <t>Describes the type of skin swabbed (lesion, non-lesion (contralateral skin), etc)</t>
   </si>
   <si>
@@ -9375,9 +8897,6 @@
     <t>Number assigned to each mouse in the experiment</t>
   </si>
   <si>
-    <t>participant under invesitigation identifier</t>
-  </si>
-  <si>
     <t>Ear thickness</t>
   </si>
   <si>
@@ -9396,9 +8915,6 @@
     <t>TP1- 0 weeks, TP2- 6 weeks, TP3- 12 weeks</t>
   </si>
   <si>
-    <t>sample collection</t>
-  </si>
-  <si>
     <t>sample collection time post infection</t>
   </si>
   <si>
@@ -9414,9 +8930,6 @@
     <t>Sebaceous, Dry, Moist</t>
   </si>
   <si>
-    <t>skin symptome or signs</t>
-  </si>
-  <si>
     <t>skin type</t>
   </si>
   <si>
@@ -9426,9 +8939,6 @@
     <t>Yes, No, NA</t>
   </si>
   <si>
-    <t>add treatment/treatment information category</t>
-  </si>
-  <si>
     <t>Delayed type hypersensitivity</t>
   </si>
   <si>
@@ -9483,485 +8993,194 @@
     <t>Number assigned to each patient in the experiment</t>
   </si>
   <si>
-    <t>Ankle Brachial Index</t>
-  </si>
-  <si>
-    <t>tests the risk of peripheral artery disease by comparing blood pressure measured at the ankle with blood pressure measured at the arm.</t>
-  </si>
-  <si>
-    <t>Age of subject in years</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>Amputation</t>
-  </si>
-  <si>
-    <t>Did the subject have an amputation?</t>
-  </si>
-  <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>Percent anaerobes</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Percent anaerococcus</t>
-  </si>
-  <si>
-    <t>Antibiotic treatment</t>
-  </si>
-  <si>
-    <t>Was an antibiotic treatment given?</t>
-  </si>
-  <si>
-    <t>Bray-Curtis Index</t>
-  </si>
-  <si>
-    <t>Percent Corynebacterium</t>
-  </si>
-  <si>
-    <t>C Reactive Protein level</t>
-  </si>
-  <si>
-    <t>Depth of ulcer</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Duration of Diabetes</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Type of Diabetes</t>
-  </si>
-  <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
-    <t>Dirchlet multinomial cluster number</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>Was this patient enrolled under the new criteria?</t>
-  </si>
-  <si>
-    <t>End of study reason</t>
-  </si>
-  <si>
-    <t>1-End of study completed; 2-Dropped out; 3-Deceased; 4-Amputation; 5-Other infection; 6-Wound infection; 7-Unable to locate/contact for followup; 8-Dropped by study; 9-Other</t>
-  </si>
-  <si>
-    <t>Erythrocyte sedimentation rate</t>
-  </si>
-  <si>
-    <t>the rate at which red blood cells sediment in a period of one hour. It is a common hematology test, and is a non-specific measure of inflammation.</t>
-  </si>
-  <si>
-    <t>millimeters per hour</t>
-  </si>
-  <si>
-    <t>Percent Firmicutes</t>
-  </si>
-  <si>
-    <t>Blood glucose</t>
-  </si>
-  <si>
-    <t>level of glucose in the peripheral blood</t>
-  </si>
-  <si>
-    <t>milligrams per deciliter (mg/dL)</t>
-  </si>
-  <si>
-    <t>This sample comes from an ulcer that ultimately healed.</t>
-  </si>
-  <si>
-    <t>healed in 12 weeks</t>
-  </si>
-  <si>
-    <t>This sample came from an ulcer that healed in 12 weeks</t>
-  </si>
-  <si>
-    <t>healed in 4 weeks</t>
-  </si>
-  <si>
-    <t>This sample came from an ulcer that healed in 4 weeks</t>
-  </si>
-  <si>
-    <t>Hemoglobin A1C</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>mean tissue oxygen tension</t>
-  </si>
-  <si>
-    <t>mmHg</t>
-  </si>
-  <si>
-    <t>necrosis present</t>
-  </si>
-  <si>
-    <t>is necrosis present?</t>
-  </si>
-  <si>
-    <t>0-none; 1-&lt;25%; 2-25-50%; 3-50-75%; 4-75-100%</t>
-  </si>
-  <si>
-    <t>Method of offloading</t>
-  </si>
-  <si>
-    <t>1-Total contact cast; 2-DH Boot</t>
-  </si>
-  <si>
-    <t>Sample ID in lab sample tracking system</t>
-  </si>
-  <si>
-    <t>1-male; 2-female</t>
-  </si>
-  <si>
-    <t>Percent Staphylococcus</t>
-  </si>
-  <si>
-    <t>Percent Streptococcus</t>
-  </si>
-  <si>
-    <t>ID of study subject</t>
-  </si>
-  <si>
-    <t>surface_area</t>
-  </si>
-  <si>
-    <t>surface area of ulcer</t>
-  </si>
-  <si>
-    <t>cm sq</t>
-  </si>
-  <si>
-    <t>surface_area_heal_rate</t>
-  </si>
-  <si>
-    <t>rate at which surface area heals</t>
-  </si>
-  <si>
-    <t>Toe Brachial Pressure Index</t>
-  </si>
-  <si>
-    <t>topical antibiotic treatment occurred at this visit</t>
-  </si>
-  <si>
-    <t>topical treatment (non-antibiotic) occurred at this treatment</t>
-  </si>
-  <si>
-    <t>ulcer_duration</t>
-  </si>
-  <si>
-    <t>ulcer duration</t>
-  </si>
-  <si>
-    <t>ulcer_location</t>
-  </si>
-  <si>
-    <t>location of the ulcer on the foot</t>
-  </si>
-  <si>
-    <t>1-lateral forefoot; 2-medial forefoot; 3-lateral midfoot; 4-medial midfoot; 5-Heel; 6-Hallux</t>
-  </si>
-  <si>
-    <t>unweighted unifrac</t>
-  </si>
-  <si>
-    <t>visit_abx</t>
-  </si>
-  <si>
-    <t>antibiotic treatment occurred one visit after at this visit</t>
-  </si>
-  <si>
-    <t>visit_before_antibiotics</t>
-  </si>
-  <si>
-    <t>antibiotic treatment occurred one visit after this visit</t>
-  </si>
-  <si>
-    <t>visit_before_amputation</t>
-  </si>
-  <si>
-    <t>amputation occurred one visit after this visit</t>
-  </si>
-  <si>
-    <t>visit_before_complication</t>
-  </si>
-  <si>
-    <t>complication occurred one visit after this visit</t>
-  </si>
-  <si>
-    <t>visit_before_healing</t>
-  </si>
-  <si>
-    <t>healing occurred one visit following this visit</t>
-  </si>
-  <si>
-    <t>visit_before_osteomyelitis</t>
-  </si>
-  <si>
-    <t>osteomyelitis occurred one visit following this visit</t>
-  </si>
-  <si>
-    <t>visit_before_wound_deterioration</t>
-  </si>
-  <si>
-    <t>wound deterioration occurred one visit after this visit</t>
-  </si>
-  <si>
-    <t>visit_complication</t>
-  </si>
-  <si>
-    <t>a complication observed during this visit</t>
-  </si>
-  <si>
-    <t>visit_osteomyelitis</t>
-  </si>
-  <si>
-    <t>osteomyelitis observed during this visit</t>
-  </si>
-  <si>
-    <t>visit_post_antibiotic_tx</t>
-  </si>
-  <si>
-    <t>this is the visit post antibiotic treatment</t>
-  </si>
-  <si>
-    <t>visit_wound_deterioration</t>
-  </si>
-  <si>
-    <t>wound deterioration observed at this visit</t>
-  </si>
-  <si>
-    <t>visit that the sample was collection</t>
-  </si>
-  <si>
-    <t>visit the ulcer healed</t>
-  </si>
-  <si>
-    <t>volume of the ulcer</t>
-  </si>
-  <si>
-    <t>rate at which the volume healed</t>
-  </si>
-  <si>
-    <t>white blood cell count</t>
-  </si>
-  <si>
-    <t>cells/mL</t>
-  </si>
-  <si>
-    <t>clinical signs and symptoms of wound deterioration</t>
-  </si>
-  <si>
-    <t>wound deterioration increase in size</t>
-  </si>
-  <si>
-    <t>Position on the 96 well plate</t>
-  </si>
-  <si>
-    <t>weighted UniFrac metric</t>
-  </si>
-  <si>
-    <t>MICRO_0000572</t>
-  </si>
-  <si>
     <t>Skin lesion duration</t>
   </si>
   <si>
-    <t>MICRO_0000571</t>
-  </si>
-  <si>
     <t>Degree of inflammation</t>
   </si>
   <si>
-    <t>MICRO_0000570</t>
-  </si>
-  <si>
     <t>Skin lesion cured (yes/no)</t>
   </si>
   <si>
-    <t>MICRO_0000589</t>
-  </si>
-  <si>
     <t>skin type swabbed</t>
   </si>
   <si>
-    <t>MICRO_0000588</t>
-  </si>
-  <si>
     <t>site of ear swabbed</t>
   </si>
   <si>
-    <t>MICRO_0000587</t>
-  </si>
-  <si>
-    <t>MICRO_0000586</t>
-  </si>
-  <si>
-    <t>MICRO_0000585</t>
-  </si>
-  <si>
-    <t>MICRO_0000584</t>
-  </si>
-  <si>
-    <t>MICRO_0000583</t>
-  </si>
-  <si>
     <t>Pinna lesion score during treatment</t>
   </si>
   <si>
-    <t>MICRO_0000582</t>
-  </si>
-  <si>
     <t>Pinna lesion score before treatment</t>
   </si>
   <si>
-    <t>MICRO_0000581</t>
-  </si>
-  <si>
     <t>Groin lesion score after treatment</t>
   </si>
   <si>
-    <t>MICRO_0000580</t>
-  </si>
-  <si>
     <t>Groin lesion score during treatment</t>
   </si>
   <si>
-    <t>MICRO_0000569</t>
-  </si>
-  <si>
-    <t>MICRO_0000568</t>
-  </si>
-  <si>
     <t>Cage number for a mouse</t>
   </si>
   <si>
-    <t>MICRO_0000567</t>
-  </si>
-  <si>
     <t>Animal cage num for experiment</t>
   </si>
   <si>
-    <t>MICRO_0000566</t>
-  </si>
-  <si>
-    <t>MICRO_0000565</t>
-  </si>
-  <si>
-    <t>MICRO_0000564</t>
-  </si>
-  <si>
-    <t>MICRO_0000563</t>
-  </si>
-  <si>
-    <t>MICRO_0000592</t>
-  </si>
-  <si>
-    <t>MICRO_0000591</t>
-  </si>
-  <si>
-    <t>MICRO_0000590</t>
-  </si>
-  <si>
-    <t>MICRO_0000579</t>
-  </si>
-  <si>
     <t>Groin lesion score before treatment</t>
   </si>
   <si>
-    <t>MICRO_0000578</t>
-  </si>
-  <si>
     <t>Axillary lesion score after treatment</t>
   </si>
   <si>
-    <t>MICRO_0000577</t>
-  </si>
-  <si>
     <t>Axillary lesion score during treatment</t>
   </si>
   <si>
-    <t>MICRO_0000576</t>
-  </si>
-  <si>
     <t>Axillary lesion score before treatment</t>
   </si>
   <si>
-    <t>MICRO_0000575</t>
-  </si>
-  <si>
     <t>Lesion size (area)</t>
   </si>
   <si>
-    <t>MICRO_0000574</t>
-  </si>
-  <si>
     <t>Study group</t>
   </si>
   <si>
-    <t>MICRO_0000573</t>
-  </si>
-  <si>
-    <t>Display name</t>
-  </si>
-  <si>
-    <t>Ontology ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parent </t>
-  </si>
-  <si>
-    <t>Sample ID on sequencing</t>
-  </si>
-  <si>
-    <t>Human or Animal</t>
-  </si>
-  <si>
-    <t>Skin symptom or sign</t>
+    <t>UO_0000196</t>
+  </si>
+  <si>
+    <t>EUPATH_0000049</t>
+  </si>
+  <si>
+    <t>EUPATH_0000640</t>
+  </si>
+  <si>
+    <t>EUPATH_0000637</t>
+  </si>
+  <si>
+    <t>EUPATH_0000613</t>
+  </si>
+  <si>
+    <t>need to convert month to day during data loading</t>
+  </si>
+  <si>
+    <t>EUPATH_0000579</t>
+  </si>
+  <si>
+    <t>EUPATH_0000606</t>
+  </si>
+  <si>
+    <t>EUPATH_0000614</t>
+  </si>
+  <si>
+    <t>EUPATH_0000615</t>
+  </si>
+  <si>
+    <t>EUPATH_0000616</t>
+  </si>
+  <si>
+    <t>EUPATH_0000617</t>
+  </si>
+  <si>
+    <t>EUPATH_0000618</t>
+  </si>
+  <si>
+    <t>EUPATH_0000619</t>
+  </si>
+  <si>
+    <t>EUPATH_0000620</t>
+  </si>
+  <si>
+    <t>EUPATH_0000621</t>
+  </si>
+  <si>
+    <t>EUPATH_0000622</t>
+  </si>
+  <si>
+    <t>EUPATH_0000623</t>
+  </si>
+  <si>
+    <t>EUPATH_0000624</t>
+  </si>
+  <si>
+    <t>EUPATH_0000625</t>
+  </si>
+  <si>
+    <t>EUPATH_0000626</t>
+  </si>
+  <si>
+    <t>EUPATH_0000627</t>
+  </si>
+  <si>
+    <t>EUPATH_0000628</t>
+  </si>
+  <si>
+    <t>EUPATH_0000629</t>
+  </si>
+  <si>
+    <t>Pinna lesion score after treatment</t>
+  </si>
+  <si>
+    <t>EUPATH_0000630</t>
+  </si>
+  <si>
+    <t>EUPATH_0000631</t>
+  </si>
+  <si>
+    <t>EUPATH_0000632</t>
+  </si>
+  <si>
+    <t>EUPATH_0000633</t>
+  </si>
+  <si>
+    <t>EUPATH_0000634</t>
+  </si>
+  <si>
+    <t>EUPATH_0000635</t>
+  </si>
+  <si>
+    <t>EUPATH_0000636</t>
+  </si>
+  <si>
+    <t>EUPATH_0000639</t>
+  </si>
+  <si>
+    <t>Mouse number in a cage</t>
+  </si>
+  <si>
+    <t>EUPATH_0000641</t>
+  </si>
+  <si>
+    <t>NCBITaxon_9615</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>OBI_0001616</t>
+  </si>
+  <si>
+    <t>UBERON_0000061</t>
+  </si>
+  <si>
+    <t>UBERON_0019204</t>
+  </si>
+  <si>
+    <t>DNA extraction date</t>
+  </si>
+  <si>
+    <t>need check with Dan whether it is the pH of sample</t>
   </si>
   <si>
     <t>Visit type</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>OBI_0001616</t>
-  </si>
-  <si>
-    <t>MICRO_0000555</t>
-  </si>
-  <si>
-    <t>UO_0000196</t>
-  </si>
-  <si>
-    <t>EUPATH_0000049</t>
-  </si>
-  <si>
-    <t>existing terms, no need to review</t>
+    <t>mapped term Source ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -10359,8 +9578,15 @@
       <color indexed="81"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="49">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10624,18 +9850,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -10768,7 +9982,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="504">
+  <cellStyleXfs count="542">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11273,8 +10487,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11411,24 +10663,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="504">
+  <cellStyles count="542">
     <cellStyle name="20% - Accent1" xfId="208" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="212" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="216" builtinId="38" customBuiltin="1"/>
@@ -11909,6 +11153,44 @@
     <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="533" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="535" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="537" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="196" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="192" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="193" builtinId="17" customBuiltin="1"/>
@@ -13568,28 +12850,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K169"/>
+  <dimension ref="A1:BR81"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D52" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F130" sqref="F130"/>
+      <selection pane="bottomRight" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22" style="7" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="56" style="7" customWidth="1"/>
-    <col min="9" max="9" width="30.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="25.83203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="38.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="40" style="7" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="53.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="7" customWidth="1"/>
+    <col min="8" max="9" width="29.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="27.5" style="7" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
@@ -13598,443 +12879,479 @@
         <v>2814</v>
       </c>
       <c r="B1" s="130" t="s">
-        <v>2974</v>
+        <v>2876</v>
       </c>
       <c r="C1" s="130" t="s">
         <v>2687</v>
       </c>
-      <c r="D1" s="130" t="s">
-        <v>2975</v>
-      </c>
-      <c r="E1" s="130" t="s">
+      <c r="D1" s="136" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E1" s="136" t="s">
         <v>2816</v>
       </c>
-      <c r="F1" s="130" t="s">
-        <v>2976</v>
+      <c r="F1" s="136" t="s">
+        <v>2878</v>
       </c>
       <c r="G1" s="130" t="s">
-        <v>2959</v>
-      </c>
-      <c r="H1" s="130" t="s">
-        <v>2977</v>
+        <v>2868</v>
+      </c>
+      <c r="H1" s="136" t="s">
+        <v>2879</v>
       </c>
       <c r="I1" s="130" t="s">
+        <v>2867</v>
+      </c>
+      <c r="J1" s="130" t="s">
+        <v>3009</v>
+      </c>
+      <c r="K1" s="130" t="s">
         <v>1250</v>
-      </c>
-      <c r="J1" s="130" t="s">
-        <v>2953</v>
-      </c>
-      <c r="K1" s="130" t="s">
-        <v>2954</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="131" customFormat="1">
       <c r="A2" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B2" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C2" s="131" t="s">
         <v>2815</v>
       </c>
-      <c r="D2" s="131" t="s">
-        <v>2979</v>
+      <c r="I2" s="131" t="s">
+        <v>3002</v>
       </c>
       <c r="J2" s="131" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K2" s="131" t="s">
-        <v>2951</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="131" customFormat="1">
       <c r="A3" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="D3" s="131" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="E3" s="131" t="s">
-        <v>2822</v>
+        <v>2818</v>
       </c>
       <c r="F3" s="131" t="s">
-        <v>2980</v>
+        <v>2881</v>
+      </c>
+      <c r="I3" s="131" t="s">
+        <v>1709</v>
       </c>
       <c r="J3" s="131" t="s">
-        <v>2981</v>
-      </c>
-      <c r="K3" s="131" t="s">
-        <v>2982</v>
+        <v>2972</v>
+      </c>
+      <c r="K3" s="132" t="s">
+        <v>2971</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="131" customFormat="1">
       <c r="A4" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B4" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>2950</v>
+        <v>2866</v>
       </c>
       <c r="D4" s="131" t="s">
-        <v>2950</v>
+        <v>2866</v>
       </c>
       <c r="E4" s="131" t="s">
-        <v>2983</v>
+        <v>2882</v>
       </c>
       <c r="F4" s="131" t="s">
-        <v>2984</v>
-      </c>
-      <c r="I4" s="132" t="s">
-        <v>2985</v>
+        <v>2883</v>
+      </c>
+      <c r="I4" s="131" t="s">
+        <v>2882</v>
       </c>
       <c r="J4" s="131" t="s">
-        <v>2950</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="131" customFormat="1">
       <c r="A5" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B5" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>2934</v>
+        <v>2850</v>
       </c>
       <c r="D5" s="131" t="s">
-        <v>2934</v>
+        <v>2850</v>
       </c>
       <c r="E5" s="131" t="s">
-        <v>2986</v>
+        <v>2884</v>
       </c>
       <c r="F5" s="131" t="s">
-        <v>2987</v>
-      </c>
-      <c r="I5" s="132" t="s">
-        <v>2988</v>
+        <v>2885</v>
+      </c>
+      <c r="I5" s="131" t="s">
+        <v>2886</v>
       </c>
       <c r="J5" s="131" t="s">
-        <v>2989</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="131" customFormat="1">
       <c r="A6" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B6" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>2936</v>
+        <v>2852</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>2936</v>
+        <v>2852</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>2990</v>
+        <v>2887</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>2987</v>
+        <v>2885</v>
       </c>
       <c r="I6" s="131" t="s">
-        <v>2991</v>
+        <v>2887</v>
       </c>
       <c r="J6" s="131" t="s">
-        <v>2990</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="131" customFormat="1">
       <c r="A7" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>2947</v>
+        <v>2863</v>
       </c>
       <c r="D7" s="131" t="s">
-        <v>2947</v>
+        <v>2863</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>2992</v>
+        <v>2888</v>
       </c>
       <c r="F7" s="131" t="s">
-        <v>2993</v>
-      </c>
-      <c r="I7" s="132" t="s">
-        <v>2994</v>
+        <v>2889</v>
+      </c>
+      <c r="I7" s="131" t="s">
+        <v>2863</v>
       </c>
       <c r="J7" s="131" t="s">
-        <v>2947</v>
-      </c>
+        <v>2996</v>
+      </c>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:11" s="131" customFormat="1">
       <c r="A8" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B8" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>2948</v>
+        <v>2864</v>
       </c>
       <c r="D8" s="131" t="s">
-        <v>2948</v>
+        <v>2864</v>
       </c>
       <c r="E8" s="131" t="s">
-        <v>2995</v>
+        <v>2890</v>
       </c>
       <c r="F8" s="131" t="s">
-        <v>2996</v>
-      </c>
-      <c r="I8" s="132" t="s">
-        <v>2997</v>
+        <v>2891</v>
+      </c>
+      <c r="I8" s="131" t="s">
+        <v>2890</v>
       </c>
       <c r="J8" s="131" t="s">
-        <v>2948</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="131" customFormat="1">
       <c r="A9" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B9" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>2937</v>
+        <v>2853</v>
       </c>
       <c r="D9" s="131" t="s">
-        <v>2937</v>
+        <v>2853</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>2937</v>
+        <v>2853</v>
       </c>
       <c r="F9" s="131" t="s">
-        <v>2998</v>
-      </c>
-      <c r="I9" s="132"/>
+        <v>2892</v>
+      </c>
+      <c r="I9" s="131" t="s">
+        <v>2963</v>
+      </c>
       <c r="J9" s="131" t="s">
-        <v>2999</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="131" customFormat="1">
       <c r="A10" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B10" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>2938</v>
+        <v>2854</v>
       </c>
       <c r="D10" s="131" t="s">
-        <v>2938</v>
+        <v>2854</v>
       </c>
       <c r="E10" s="131" t="s">
-        <v>2938</v>
+        <v>2854</v>
       </c>
       <c r="F10" s="131" t="s">
-        <v>2998</v>
-      </c>
-      <c r="I10" s="132" t="s">
-        <v>3000</v>
+        <v>2892</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>2962</v>
       </c>
       <c r="J10" s="131" t="s">
-        <v>3001</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="131" customFormat="1">
       <c r="A11" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B11" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>2939</v>
+        <v>2855</v>
       </c>
       <c r="D11" s="131" t="s">
-        <v>2939</v>
+        <v>2855</v>
       </c>
       <c r="E11" s="133" t="s">
-        <v>2939</v>
+        <v>2855</v>
       </c>
       <c r="F11" s="133" t="s">
-        <v>2998</v>
+        <v>2892</v>
+      </c>
+      <c r="I11" s="131" t="s">
+        <v>2961</v>
       </c>
       <c r="J11" s="131" t="s">
-        <v>3002</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="131" customFormat="1">
       <c r="A12" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B12" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>2940</v>
+        <v>2856</v>
       </c>
       <c r="D12" s="131" t="s">
-        <v>2940</v>
+        <v>2856</v>
       </c>
       <c r="E12" s="133" t="s">
-        <v>2940</v>
+        <v>2856</v>
       </c>
       <c r="F12" s="133" t="s">
-        <v>2998</v>
+        <v>2892</v>
+      </c>
+      <c r="I12" s="131" t="s">
+        <v>2960</v>
       </c>
       <c r="J12" s="131" t="s">
-        <v>3003</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="131" customFormat="1">
       <c r="A13" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B13" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>2941</v>
+        <v>2857</v>
       </c>
       <c r="D13" s="131" t="s">
-        <v>2941</v>
+        <v>2857</v>
       </c>
       <c r="E13" s="133" t="s">
-        <v>2941</v>
+        <v>2857</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>2998</v>
+        <v>2892</v>
+      </c>
+      <c r="I13" s="131" t="s">
+        <v>2957</v>
+      </c>
+      <c r="J13" s="131" t="s">
+        <v>2986</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="131" customFormat="1">
       <c r="A14" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B14" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>2942</v>
+        <v>2858</v>
       </c>
       <c r="D14" s="131" t="s">
-        <v>2942</v>
+        <v>2858</v>
       </c>
       <c r="E14" s="133" t="s">
-        <v>2942</v>
+        <v>2858</v>
       </c>
       <c r="F14" s="133" t="s">
-        <v>2998</v>
+        <v>2892</v>
+      </c>
+      <c r="I14" s="131" t="s">
+        <v>2956</v>
+      </c>
+      <c r="J14" s="131" t="s">
+        <v>2987</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="131" customFormat="1">
       <c r="A15" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B15" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>2943</v>
+        <v>2859</v>
       </c>
       <c r="D15" s="131" t="s">
-        <v>2943</v>
+        <v>2859</v>
       </c>
       <c r="E15" s="133" t="s">
-        <v>2943</v>
+        <v>2859</v>
       </c>
       <c r="F15" s="133" t="s">
-        <v>2998</v>
+        <v>2892</v>
+      </c>
+      <c r="I15" s="131" t="s">
+        <v>2955</v>
       </c>
       <c r="J15" s="131" t="s">
-        <v>3004</v>
+        <v>2988</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="131" customFormat="1">
       <c r="A16" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B16" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>2944</v>
+        <v>2860</v>
       </c>
       <c r="D16" s="131" t="s">
-        <v>2944</v>
+        <v>2860</v>
       </c>
       <c r="E16" s="133" t="s">
-        <v>2944</v>
+        <v>2860</v>
       </c>
       <c r="F16" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="131" customFormat="1">
+        <v>2892</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>2954</v>
+      </c>
+      <c r="J16" s="131" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" s="131" customFormat="1">
       <c r="A17" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B17" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>2945</v>
+        <v>2861</v>
       </c>
       <c r="D17" s="131" t="s">
-        <v>2945</v>
+        <v>2861</v>
       </c>
       <c r="E17" s="133" t="s">
-        <v>2945</v>
+        <v>2861</v>
       </c>
       <c r="F17" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="131" customFormat="1">
+        <v>2892</v>
+      </c>
+      <c r="I17" s="131" t="s">
+        <v>2990</v>
+      </c>
+      <c r="J17" s="131" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" s="131" customFormat="1">
       <c r="A18" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B18" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>2949</v>
+        <v>2865</v>
       </c>
       <c r="D18" s="131" t="s">
-        <v>2949</v>
+        <v>2865</v>
       </c>
       <c r="E18" s="133" t="s">
-        <v>3005</v>
+        <v>2893</v>
       </c>
       <c r="F18" s="133" t="s">
-        <v>2984</v>
-      </c>
-      <c r="I18" s="132" t="s">
-        <v>3006</v>
+        <v>2883</v>
+      </c>
+      <c r="I18" s="131" t="s">
+        <v>2893</v>
       </c>
       <c r="J18" s="131" t="s">
-        <v>2949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="131" customFormat="1">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" s="131" customFormat="1">
       <c r="A19" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B19" s="131" t="s">
-        <v>2978</v>
+        <v>2880</v>
       </c>
       <c r="C19" s="131" t="s">
         <v>577</v>
@@ -14049,3440 +13366,2570 @@
         <v>577</v>
       </c>
       <c r="I19" s="131" t="s">
-        <v>2964</v>
+        <v>577</v>
       </c>
       <c r="J19" s="131" t="s">
-        <v>577</v>
-      </c>
-      <c r="K19" s="131" t="s">
-        <v>2963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="131" customFormat="1">
+        <v>2966</v>
+      </c>
+      <c r="K19" s="132" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" s="131" customFormat="1">
       <c r="A20" s="131" t="s">
-        <v>2933</v>
+        <v>2849</v>
       </c>
       <c r="B20" s="131" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D20" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E20" s="133" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F20" s="133" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I20" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" s="131" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" s="131" customFormat="1">
+      <c r="A21" s="131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B21" s="131" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D21" s="131" t="s">
+        <v>2885</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>2885</v>
+      </c>
+      <c r="F21" s="133" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I21" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="131" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" s="135" customFormat="1">
+      <c r="A22" s="137" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B22" s="137" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C22" s="137" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D22" s="137" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E22" s="139" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F22" s="139" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="131"/>
+      <c r="U22" s="131"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="131"/>
+      <c r="X22" s="131"/>
+      <c r="Y22" s="131"/>
+      <c r="Z22" s="131"/>
+      <c r="AA22" s="131"/>
+      <c r="AB22" s="131"/>
+      <c r="AC22" s="131"/>
+      <c r="AD22" s="131"/>
+      <c r="AE22" s="131"/>
+      <c r="AF22" s="131"/>
+      <c r="AG22" s="131"/>
+      <c r="AH22" s="131"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="131"/>
+      <c r="AK22" s="131"/>
+      <c r="AL22" s="131"/>
+      <c r="AM22" s="131"/>
+      <c r="AN22" s="131"/>
+      <c r="AO22" s="131"/>
+      <c r="AP22" s="131"/>
+      <c r="AQ22" s="131"/>
+      <c r="AR22" s="131"/>
+      <c r="AS22" s="131"/>
+      <c r="AT22" s="131"/>
+      <c r="AU22" s="131"/>
+      <c r="AV22" s="131"/>
+      <c r="AW22" s="131"/>
+      <c r="AX22" s="131"/>
+      <c r="AY22" s="131"/>
+      <c r="AZ22" s="131"/>
+      <c r="BA22" s="131"/>
+      <c r="BB22" s="131"/>
+      <c r="BC22" s="131"/>
+      <c r="BD22" s="131"/>
+      <c r="BE22" s="131"/>
+      <c r="BF22" s="131"/>
+      <c r="BG22" s="131"/>
+      <c r="BH22" s="131"/>
+      <c r="BI22" s="131"/>
+      <c r="BJ22" s="131"/>
+      <c r="BK22" s="131"/>
+      <c r="BL22" s="131"/>
+      <c r="BM22" s="131"/>
+      <c r="BN22" s="131"/>
+      <c r="BO22" s="131"/>
+      <c r="BP22" s="131"/>
+      <c r="BQ22" s="131"/>
+      <c r="BR22" s="131"/>
+    </row>
+    <row r="23" spans="1:70" s="131" customFormat="1">
+      <c r="A23" s="131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B23" s="131" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D23" s="131" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E23" s="141" t="s">
+        <v>2894</v>
+      </c>
+      <c r="F23" s="141" t="s">
+        <v>2895</v>
+      </c>
+      <c r="I23" s="131" t="s">
+        <v>2894</v>
+      </c>
+      <c r="J23" s="131" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" s="131" customFormat="1">
+      <c r="A24" s="131" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B24" s="131" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D24" s="131" t="s">
+        <v>2896</v>
+      </c>
+      <c r="E24" s="133" t="s">
+        <v>2897</v>
+      </c>
+      <c r="F24" s="133" t="s">
+        <v>2885</v>
+      </c>
+      <c r="I24" s="131" t="s">
+        <v>3008</v>
+      </c>
+      <c r="J24" s="131" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" s="131" customFormat="1">
+      <c r="A25" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B25" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D25" s="131" t="s">
+        <v>2899</v>
+      </c>
+      <c r="E25" s="131" t="s">
+        <v>2900</v>
+      </c>
+      <c r="I25" s="131" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J25" s="131" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" s="131" customFormat="1">
+      <c r="A26" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B26" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D26" s="131" t="s">
+        <v>2846</v>
+      </c>
+      <c r="E26" s="131" t="s">
+        <v>2901</v>
+      </c>
+      <c r="I26" s="131" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J26" s="131" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" s="135" customFormat="1">
+      <c r="A27" s="137" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B27" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C27" s="137" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D27" s="140" t="s">
+        <v>2902</v>
+      </c>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
+      <c r="N27" s="131"/>
+      <c r="O27" s="131"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="131"/>
+      <c r="X27" s="131"/>
+      <c r="Y27" s="131"/>
+      <c r="Z27" s="131"/>
+      <c r="AA27" s="131"/>
+      <c r="AB27" s="131"/>
+      <c r="AC27" s="131"/>
+      <c r="AD27" s="131"/>
+      <c r="AE27" s="131"/>
+      <c r="AF27" s="131"/>
+      <c r="AG27" s="131"/>
+      <c r="AH27" s="131"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="131"/>
+      <c r="AK27" s="131"/>
+      <c r="AL27" s="131"/>
+      <c r="AM27" s="131"/>
+      <c r="AN27" s="131"/>
+      <c r="AO27" s="131"/>
+      <c r="AP27" s="131"/>
+      <c r="AQ27" s="131"/>
+      <c r="AR27" s="131"/>
+      <c r="AS27" s="131"/>
+      <c r="AT27" s="131"/>
+      <c r="AU27" s="131"/>
+      <c r="AV27" s="131"/>
+      <c r="AW27" s="131"/>
+      <c r="AX27" s="131"/>
+      <c r="AY27" s="131"/>
+      <c r="AZ27" s="131"/>
+      <c r="BA27" s="131"/>
+      <c r="BB27" s="131"/>
+      <c r="BC27" s="131"/>
+      <c r="BD27" s="131"/>
+      <c r="BE27" s="131"/>
+      <c r="BF27" s="131"/>
+      <c r="BG27" s="131"/>
+      <c r="BH27" s="131"/>
+      <c r="BI27" s="131"/>
+      <c r="BJ27" s="131"/>
+      <c r="BK27" s="131"/>
+      <c r="BL27" s="131"/>
+      <c r="BM27" s="131"/>
+      <c r="BN27" s="131"/>
+      <c r="BO27" s="131"/>
+      <c r="BP27" s="131"/>
+      <c r="BQ27" s="131"/>
+      <c r="BR27" s="131"/>
+    </row>
+    <row r="28" spans="1:70" s="131" customFormat="1">
+      <c r="A28" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B28" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D28" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E28" s="131" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G28" s="134" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H28" s="134"/>
+      <c r="I28" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J28" s="131" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" s="131" customFormat="1">
+      <c r="A29" s="137" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B29" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C29" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D29" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E29" s="137" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+    </row>
+    <row r="30" spans="1:70" s="137" customFormat="1">
+      <c r="A30" s="137" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B30" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C30" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D30" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E30" s="137" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="131"/>
+      <c r="X30" s="131"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="131"/>
+      <c r="AA30" s="131"/>
+      <c r="AB30" s="131"/>
+      <c r="AC30" s="131"/>
+      <c r="AD30" s="131"/>
+      <c r="AE30" s="131"/>
+      <c r="AF30" s="131"/>
+      <c r="AG30" s="131"/>
+      <c r="AH30" s="131"/>
+      <c r="AI30" s="131"/>
+      <c r="AJ30" s="131"/>
+      <c r="AK30" s="131"/>
+      <c r="AL30" s="131"/>
+      <c r="AM30" s="131"/>
+      <c r="AN30" s="131"/>
+      <c r="AO30" s="131"/>
+      <c r="AP30" s="131"/>
+      <c r="AQ30" s="131"/>
+      <c r="AR30" s="131"/>
+      <c r="AS30" s="131"/>
+      <c r="AT30" s="131"/>
+      <c r="AU30" s="131"/>
+      <c r="AV30" s="131"/>
+      <c r="AW30" s="131"/>
+      <c r="AX30" s="131"/>
+      <c r="AY30" s="131"/>
+      <c r="AZ30" s="131"/>
+      <c r="BA30" s="131"/>
+      <c r="BB30" s="131"/>
+      <c r="BC30" s="131"/>
+      <c r="BD30" s="131"/>
+      <c r="BE30" s="131"/>
+      <c r="BF30" s="131"/>
+      <c r="BG30" s="131"/>
+      <c r="BH30" s="131"/>
+      <c r="BI30" s="131"/>
+      <c r="BJ30" s="131"/>
+      <c r="BK30" s="131"/>
+      <c r="BL30" s="131"/>
+      <c r="BM30" s="131"/>
+      <c r="BN30" s="131"/>
+      <c r="BO30" s="131"/>
+      <c r="BP30" s="131"/>
+      <c r="BQ30" s="131"/>
+      <c r="BR30" s="131"/>
+    </row>
+    <row r="31" spans="1:70" s="131" customFormat="1">
+      <c r="A31" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B31" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D31" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E31" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="I31" s="131" t="s">
+        <v>3002</v>
+      </c>
+      <c r="J31" s="131" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:70" s="131" customFormat="1">
+      <c r="A32" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B32" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C32" s="131" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D32" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E32" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F32" s="131" t="s">
+        <v>2909</v>
+      </c>
+      <c r="I32" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J32" s="131" t="s">
         <v>2978</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="E20" s="133" t="s">
-        <v>2823</v>
-      </c>
-      <c r="F20" s="133" t="s">
-        <v>2987</v>
-      </c>
-      <c r="J20" s="131" t="s">
-        <v>1724</v>
-      </c>
-      <c r="K20" s="131" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="131" customFormat="1">
-      <c r="A21" s="131" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B21" s="131" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>2922</v>
-      </c>
-      <c r="D21" s="131" t="s">
-        <v>2987</v>
-      </c>
-      <c r="E21" s="133" t="s">
-        <v>2987</v>
-      </c>
-      <c r="F21" s="133" t="s">
-        <v>2987</v>
-      </c>
-      <c r="I21" s="132" t="s">
-        <v>3007</v>
-      </c>
-      <c r="J21" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="K21" s="131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="134" customFormat="1">
-      <c r="A22" s="134" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B22" s="134" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C22" s="134" t="s">
-        <v>2935</v>
-      </c>
-      <c r="D22" s="134" t="s">
-        <v>2935</v>
-      </c>
-      <c r="E22" s="135" t="s">
-        <v>2935</v>
-      </c>
-      <c r="F22" s="135" t="s">
-        <v>2987</v>
-      </c>
-      <c r="I22" s="134" t="s">
-        <v>3008</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="131" customFormat="1">
-      <c r="A23" s="131" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>2946</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>2946</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>3009</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>3010</v>
-      </c>
-      <c r="I23" s="132" t="s">
-        <v>3011</v>
-      </c>
-      <c r="J23" s="45" t="s">
-        <v>3012</v>
-      </c>
-      <c r="K23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" s="131" customFormat="1">
-      <c r="A24" s="131" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B24" s="131" t="s">
-        <v>2978</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>3013</v>
-      </c>
-      <c r="E24" s="133" t="s">
-        <v>3014</v>
-      </c>
-      <c r="F24" s="133" t="s">
-        <v>2987</v>
-      </c>
-      <c r="I24" s="131" t="s">
-        <v>3015</v>
-      </c>
-      <c r="J24" s="131" t="s">
-        <v>3016</v>
-      </c>
-      <c r="K24" s="131" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="131" customFormat="1">
-      <c r="A25" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B25" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D25" s="131" t="s">
-        <v>3019</v>
-      </c>
-      <c r="E25" s="131" t="s">
-        <v>3020</v>
-      </c>
-      <c r="J25" s="132" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="131" customFormat="1">
-      <c r="A26" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B26" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>2930</v>
-      </c>
-      <c r="D26" s="131" t="s">
-        <v>2930</v>
-      </c>
-      <c r="E26" s="131" t="s">
-        <v>3022</v>
-      </c>
-      <c r="J26" s="132" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="134" customFormat="1">
-      <c r="A27" s="134" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B27" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C27" s="134" t="s">
-        <v>2932</v>
-      </c>
-      <c r="D27" s="136" t="s">
-        <v>3024</v>
-      </c>
-      <c r="I27" s="134" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="131" customFormat="1">
-      <c r="A28" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="D28" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="E28" s="131" t="s">
-        <v>3026</v>
-      </c>
-      <c r="G28" s="137" t="s">
-        <v>2960</v>
-      </c>
-      <c r="H28" s="137"/>
-      <c r="J28" s="131" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="134" customFormat="1">
-      <c r="A29" s="134" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C29" s="134" t="s">
-        <v>2907</v>
-      </c>
-      <c r="D29" s="134" t="s">
-        <v>2907</v>
-      </c>
-      <c r="E29" s="134" t="s">
-        <v>3028</v>
-      </c>
-      <c r="J29" s="134" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K29" s="134" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="138" customFormat="1">
-      <c r="A30" s="138" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B30" s="138" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C30" s="138" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D30" s="138" t="s">
-        <v>2906</v>
-      </c>
-      <c r="E30" s="138" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="131" customFormat="1">
-      <c r="A31" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B31" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C31" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="D31" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="E31" s="131" t="s">
-        <v>3030</v>
-      </c>
-      <c r="J31" s="131" t="s">
-        <v>3031</v>
-      </c>
-      <c r="K31" s="131" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="131" customFormat="1">
-      <c r="A32" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C32" s="131" t="s">
-        <v>2926</v>
-      </c>
-      <c r="D32" s="131" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E32" s="131" t="s">
-        <v>3033</v>
-      </c>
-      <c r="F32" s="131" t="s">
-        <v>3034</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="131" customFormat="1">
       <c r="A33" s="131" t="s">
-        <v>2931</v>
+        <v>2847</v>
       </c>
       <c r="B33" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C33" s="131" t="s">
-        <v>2913</v>
+        <v>2829</v>
       </c>
       <c r="D33" s="131" t="s">
-        <v>3035</v>
+        <v>2910</v>
       </c>
       <c r="E33" s="131" t="s">
-        <v>3036</v>
-      </c>
-      <c r="I33" s="139" t="s">
-        <v>3037</v>
+        <v>2911</v>
+      </c>
+      <c r="I33" s="131" t="s">
+        <v>2953</v>
       </c>
       <c r="J33" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="K33" s="131" t="s">
-        <v>62</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="131" customFormat="1">
       <c r="A34" s="131" t="s">
-        <v>2931</v>
+        <v>2847</v>
       </c>
       <c r="B34" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C34" s="131" t="s">
-        <v>2929</v>
+        <v>2845</v>
       </c>
       <c r="D34" s="131" t="s">
-        <v>2929</v>
+        <v>2845</v>
       </c>
       <c r="E34" s="131" t="s">
-        <v>3038</v>
+        <v>2912</v>
+      </c>
+      <c r="I34" s="131" t="s">
+        <v>2952</v>
       </c>
       <c r="J34" s="131" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="134" customFormat="1">
-      <c r="A35" s="134" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B35" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C35" s="134" t="s">
-        <v>2922</v>
-      </c>
-      <c r="D35" s="134" t="s">
-        <v>3039</v>
-      </c>
-      <c r="E35" s="134" t="s">
-        <v>3040</v>
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="131" customFormat="1">
+      <c r="A35" s="131" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B35" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D35" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E35" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I35" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="131" t="s">
+        <v>3004</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="131" customFormat="1">
-      <c r="A36" s="131" t="s">
-        <v>2931</v>
-      </c>
-      <c r="B36" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C36" s="131" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D36" s="131" t="s">
-        <v>3032</v>
-      </c>
-      <c r="E36" s="131" t="s">
-        <v>3041</v>
-      </c>
-      <c r="I36" s="131" t="s">
-        <v>3011</v>
-      </c>
-      <c r="J36" s="131" t="s">
-        <v>3032</v>
-      </c>
+      <c r="A36" s="137" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B36" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C36" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E36" s="137" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
     </row>
     <row r="37" spans="1:11" s="131" customFormat="1">
       <c r="A37" s="131" t="s">
-        <v>2931</v>
+        <v>2847</v>
       </c>
       <c r="B37" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C37" s="131" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D37" s="131" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E37" s="131" t="s">
-        <v>3042</v>
+        <v>2916</v>
+      </c>
+      <c r="I37" s="131" t="s">
+        <v>2471</v>
       </c>
       <c r="J37" s="131" t="s">
-        <v>3043</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="131" customFormat="1">
       <c r="A38" s="131" t="s">
-        <v>2931</v>
+        <v>2847</v>
       </c>
       <c r="B38" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C38" s="131" t="s">
-        <v>2927</v>
+        <v>2843</v>
       </c>
       <c r="D38" s="131" t="s">
-        <v>3044</v>
+        <v>2917</v>
       </c>
       <c r="E38" s="131" t="s">
-        <v>3045</v>
+        <v>2918</v>
       </c>
       <c r="F38" s="131" t="s">
-        <v>3046</v>
+        <v>2919</v>
       </c>
       <c r="I38" s="131" t="s">
-        <v>3011</v>
+        <v>2917</v>
+      </c>
+      <c r="J38" s="131" t="s">
+        <v>2974</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="131" customFormat="1">
       <c r="A39" s="131" t="s">
-        <v>2931</v>
+        <v>2847</v>
       </c>
       <c r="B39" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C39" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D39" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E39" s="131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F39" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>2922</v>
+      </c>
+      <c r="I39" s="131" t="s">
         <v>2923</v>
       </c>
-      <c r="D39" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E39" s="131" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F39" s="131" t="s">
-        <v>3048</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>3049</v>
-      </c>
-      <c r="I39" s="131" t="s">
-        <v>3050</v>
-      </c>
       <c r="J39" s="131" t="s">
-        <v>3051</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="131" customFormat="1">
       <c r="A40" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B40" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>2925</v>
+        <v>2841</v>
       </c>
       <c r="D40" s="131" t="s">
-        <v>2925</v>
+        <v>2841</v>
       </c>
       <c r="E40" s="131" t="s">
-        <v>3020</v>
+        <v>2900</v>
+      </c>
+      <c r="I40" s="131" t="s">
+        <v>2959</v>
       </c>
       <c r="J40" s="131" t="s">
-        <v>2956</v>
-      </c>
-      <c r="K40" s="131" t="s">
-        <v>2957</v>
+        <v>2968</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="131" customFormat="1">
       <c r="A41" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B41" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C41" s="131" t="s">
-        <v>2930</v>
+        <v>2846</v>
       </c>
       <c r="D41" s="131" t="s">
-        <v>2930</v>
+        <v>2846</v>
       </c>
       <c r="E41" s="131" t="s">
-        <v>3022</v>
+        <v>2901</v>
+      </c>
+      <c r="I41" s="131" t="s">
+        <v>2958</v>
       </c>
       <c r="J41" s="131" t="s">
-        <v>2958</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="131" customFormat="1">
       <c r="A42" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B42" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C42" s="131" t="s">
-        <v>2924</v>
+        <v>2840</v>
       </c>
       <c r="D42" s="131" t="s">
-        <v>2924</v>
+        <v>2840</v>
       </c>
       <c r="E42" s="131" t="s">
-        <v>3026</v>
-      </c>
-      <c r="G42" s="137" t="s">
-        <v>2960</v>
-      </c>
-      <c r="I42" s="137"/>
+        <v>2903</v>
+      </c>
+      <c r="G42" s="134" t="s">
+        <v>2869</v>
+      </c>
+      <c r="I42" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J42" s="131" t="s">
+        <v>2998</v>
+      </c>
+      <c r="K42" s="134"/>
     </row>
     <row r="43" spans="1:11" s="131" customFormat="1">
-      <c r="A43" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B43" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C43" s="131" t="s">
-        <v>2907</v>
-      </c>
-      <c r="D43" s="131" t="s">
-        <v>2907</v>
-      </c>
-      <c r="E43" s="131" t="s">
-        <v>3028</v>
-      </c>
-      <c r="J43" s="131" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K43" s="131" t="s">
-        <v>2966</v>
-      </c>
+      <c r="A43" s="137" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B43" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C43" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D43" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E43" s="137" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
     </row>
     <row r="44" spans="1:11" s="131" customFormat="1">
-      <c r="A44" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B44" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D44" s="131" t="s">
-        <v>2906</v>
-      </c>
-      <c r="E44" s="131" t="s">
-        <v>3029</v>
-      </c>
+      <c r="A44" s="137" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B44" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C44" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D44" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E44" s="137" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
     </row>
     <row r="45" spans="1:11" s="131" customFormat="1">
       <c r="A45" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B45" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C45" s="131" t="s">
-        <v>2848</v>
+        <v>2820</v>
       </c>
       <c r="D45" s="131" t="s">
-        <v>2848</v>
+        <v>2820</v>
       </c>
       <c r="E45" s="131" t="s">
-        <v>3030</v>
+        <v>2906</v>
+      </c>
+      <c r="I45" s="131" t="s">
+        <v>3002</v>
       </c>
       <c r="J45" s="131" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K45" s="131" t="s">
-        <v>2951</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="131" customFormat="1">
       <c r="A46" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B46" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>2926</v>
+        <v>2842</v>
       </c>
       <c r="D46" s="131" t="s">
-        <v>3032</v>
+        <v>2907</v>
       </c>
       <c r="E46" s="131" t="s">
-        <v>3033</v>
+        <v>2908</v>
       </c>
       <c r="F46" s="131" t="s">
-        <v>3034</v>
+        <v>2909</v>
+      </c>
+      <c r="I46" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J46" s="131" t="s">
+        <v>2978</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="131" customFormat="1">
       <c r="A47" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B47" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C47" s="131" t="s">
-        <v>2913</v>
+        <v>2829</v>
       </c>
       <c r="D47" s="131" t="s">
-        <v>2913</v>
+        <v>2829</v>
       </c>
       <c r="E47" s="131" t="s">
-        <v>3036</v>
+        <v>2911</v>
+      </c>
+      <c r="I47" s="131" t="s">
+        <v>2953</v>
+      </c>
+      <c r="J47" s="131" t="s">
+        <v>2976</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="131" customFormat="1">
       <c r="A48" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B48" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C48" s="131" t="s">
-        <v>2929</v>
+        <v>2845</v>
       </c>
       <c r="D48" s="131" t="s">
-        <v>2929</v>
+        <v>2845</v>
       </c>
       <c r="E48" s="131" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="131" customFormat="1">
+        <v>2912</v>
+      </c>
+      <c r="I48" s="131" t="s">
+        <v>2952</v>
+      </c>
+      <c r="J48" s="131" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="49" spans="1:70" s="131" customFormat="1">
       <c r="A49" s="131" t="s">
-        <v>2928</v>
+        <v>2844</v>
       </c>
       <c r="B49" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C49" s="131" t="s">
-        <v>2922</v>
+        <v>2838</v>
       </c>
       <c r="D49" s="131" t="s">
-        <v>3039</v>
+        <v>2913</v>
       </c>
       <c r="E49" s="131" t="s">
-        <v>3040</v>
+        <v>2914</v>
+      </c>
+      <c r="I49" s="131" t="s">
+        <v>61</v>
       </c>
       <c r="J49" s="131" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:70" s="131" customFormat="1">
+      <c r="A50" s="137" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B50" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C50" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D50" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E50" s="137" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="137"/>
+    </row>
+    <row r="51" spans="1:70" s="131" customFormat="1">
+      <c r="A51" s="131" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B51" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C51" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D51" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E51" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="I51" s="131" t="s">
+        <v>2471</v>
+      </c>
+      <c r="J51" s="131" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="52" spans="1:70" s="131" customFormat="1">
+      <c r="A52" s="131" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B52" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C52" s="131" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D52" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E52" s="131" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F52" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I52" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J52" s="131" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="53" spans="1:70" s="131" customFormat="1">
+      <c r="A53" s="131" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B53" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C53" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D53" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E53" s="131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F53" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="H53" s="134" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I53" s="131" t="s">
+        <v>2923</v>
+      </c>
+      <c r="J53" s="131" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="54" spans="1:70" s="131" customFormat="1">
+      <c r="A54" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B54" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C54" s="131" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D54" s="131" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E54" s="131" t="s">
+        <v>2900</v>
+      </c>
+      <c r="I54" s="131" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J54" s="131" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="55" spans="1:70" s="137" customFormat="1">
+      <c r="A55" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B55" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C55" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D55" s="131" t="s">
+        <v>2840</v>
+      </c>
+      <c r="E55" s="131" t="s">
+        <v>2903</v>
+      </c>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131" t="s">
+        <v>2965</v>
+      </c>
+      <c r="J55" s="131" t="s">
+        <v>2998</v>
+      </c>
+      <c r="K55" s="131"/>
+      <c r="L55" s="131"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="131"/>
+      <c r="AG55" s="131"/>
+      <c r="AH55" s="131"/>
+      <c r="AI55" s="131"/>
+      <c r="AJ55" s="131"/>
+      <c r="AK55" s="131"/>
+      <c r="AL55" s="131"/>
+      <c r="AM55" s="131"/>
+      <c r="AN55" s="131"/>
+      <c r="AO55" s="131"/>
+      <c r="AP55" s="131"/>
+      <c r="AQ55" s="131"/>
+      <c r="AR55" s="131"/>
+      <c r="AS55" s="131"/>
+      <c r="AT55" s="131"/>
+      <c r="AU55" s="131"/>
+      <c r="AV55" s="131"/>
+      <c r="AW55" s="131"/>
+      <c r="AX55" s="131"/>
+      <c r="AY55" s="131"/>
+      <c r="AZ55" s="131"/>
+      <c r="BA55" s="131"/>
+      <c r="BB55" s="131"/>
+      <c r="BC55" s="131"/>
+      <c r="BD55" s="131"/>
+      <c r="BE55" s="131"/>
+      <c r="BF55" s="131"/>
+      <c r="BG55" s="131"/>
+      <c r="BH55" s="131"/>
+      <c r="BI55" s="131"/>
+      <c r="BJ55" s="131"/>
+      <c r="BK55" s="131"/>
+      <c r="BL55" s="131"/>
+      <c r="BM55" s="131"/>
+      <c r="BN55" s="131"/>
+      <c r="BO55" s="131"/>
+      <c r="BP55" s="131"/>
+      <c r="BQ55" s="131"/>
+      <c r="BR55" s="131"/>
+    </row>
+    <row r="56" spans="1:70" s="137" customFormat="1">
+      <c r="A56" s="137" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B56" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C56" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D56" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E56" s="137" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L56" s="131"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="131"/>
+      <c r="S56" s="131"/>
+      <c r="T56" s="131"/>
+      <c r="U56" s="131"/>
+      <c r="V56" s="131"/>
+      <c r="W56" s="131"/>
+      <c r="X56" s="131"/>
+      <c r="Y56" s="131"/>
+      <c r="Z56" s="131"/>
+      <c r="AA56" s="131"/>
+      <c r="AB56" s="131"/>
+      <c r="AC56" s="131"/>
+      <c r="AD56" s="131"/>
+      <c r="AE56" s="131"/>
+      <c r="AF56" s="131"/>
+      <c r="AG56" s="131"/>
+      <c r="AH56" s="131"/>
+      <c r="AI56" s="131"/>
+      <c r="AJ56" s="131"/>
+      <c r="AK56" s="131"/>
+      <c r="AL56" s="131"/>
+      <c r="AM56" s="131"/>
+      <c r="AN56" s="131"/>
+      <c r="AO56" s="131"/>
+      <c r="AP56" s="131"/>
+      <c r="AQ56" s="131"/>
+      <c r="AR56" s="131"/>
+      <c r="AS56" s="131"/>
+      <c r="AT56" s="131"/>
+      <c r="AU56" s="131"/>
+      <c r="AV56" s="131"/>
+      <c r="AW56" s="131"/>
+      <c r="AX56" s="131"/>
+      <c r="AY56" s="131"/>
+      <c r="AZ56" s="131"/>
+      <c r="BA56" s="131"/>
+      <c r="BB56" s="131"/>
+      <c r="BC56" s="131"/>
+      <c r="BD56" s="131"/>
+      <c r="BE56" s="131"/>
+      <c r="BF56" s="131"/>
+      <c r="BG56" s="131"/>
+      <c r="BH56" s="131"/>
+      <c r="BI56" s="131"/>
+      <c r="BJ56" s="131"/>
+      <c r="BK56" s="131"/>
+      <c r="BL56" s="131"/>
+      <c r="BM56" s="131"/>
+      <c r="BN56" s="131"/>
+      <c r="BO56" s="131"/>
+      <c r="BP56" s="131"/>
+      <c r="BQ56" s="131"/>
+      <c r="BR56" s="131"/>
+    </row>
+    <row r="57" spans="1:70" s="137" customFormat="1">
+      <c r="A57" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B57" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C57" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D57" s="131" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E57" s="131" t="s">
+        <v>2906</v>
+      </c>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131" t="s">
+        <v>3002</v>
+      </c>
+      <c r="J57" s="131" t="s">
+        <v>3003</v>
+      </c>
+      <c r="K57" s="131"/>
+      <c r="L57" s="131"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
+      <c r="O57" s="131"/>
+      <c r="P57" s="131"/>
+      <c r="Q57" s="131"/>
+      <c r="R57" s="131"/>
+      <c r="S57" s="131"/>
+      <c r="T57" s="131"/>
+      <c r="U57" s="131"/>
+      <c r="V57" s="131"/>
+      <c r="W57" s="131"/>
+      <c r="X57" s="131"/>
+      <c r="Y57" s="131"/>
+      <c r="Z57" s="131"/>
+      <c r="AA57" s="131"/>
+      <c r="AB57" s="131"/>
+      <c r="AC57" s="131"/>
+      <c r="AD57" s="131"/>
+      <c r="AE57" s="131"/>
+      <c r="AF57" s="131"/>
+      <c r="AG57" s="131"/>
+      <c r="AH57" s="131"/>
+      <c r="AI57" s="131"/>
+      <c r="AJ57" s="131"/>
+      <c r="AK57" s="131"/>
+      <c r="AL57" s="131"/>
+      <c r="AM57" s="131"/>
+      <c r="AN57" s="131"/>
+      <c r="AO57" s="131"/>
+      <c r="AP57" s="131"/>
+      <c r="AQ57" s="131"/>
+      <c r="AR57" s="131"/>
+      <c r="AS57" s="131"/>
+      <c r="AT57" s="131"/>
+      <c r="AU57" s="131"/>
+      <c r="AV57" s="131"/>
+      <c r="AW57" s="131"/>
+      <c r="AX57" s="131"/>
+      <c r="AY57" s="131"/>
+      <c r="AZ57" s="131"/>
+      <c r="BA57" s="131"/>
+      <c r="BB57" s="131"/>
+      <c r="BC57" s="131"/>
+      <c r="BD57" s="131"/>
+      <c r="BE57" s="131"/>
+      <c r="BF57" s="131"/>
+      <c r="BG57" s="131"/>
+      <c r="BH57" s="131"/>
+      <c r="BI57" s="131"/>
+      <c r="BJ57" s="131"/>
+      <c r="BK57" s="131"/>
+      <c r="BL57" s="131"/>
+      <c r="BM57" s="131"/>
+      <c r="BN57" s="131"/>
+      <c r="BO57" s="131"/>
+      <c r="BP57" s="131"/>
+      <c r="BQ57" s="131"/>
+      <c r="BR57" s="131"/>
+    </row>
+    <row r="58" spans="1:70" s="137" customFormat="1">
+      <c r="A58" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B58" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C58" s="131" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D58" s="131" t="s">
+        <v>2842</v>
+      </c>
+      <c r="E58" s="131" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F58" s="131" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131" t="s">
+        <v>2907</v>
+      </c>
+      <c r="J58" s="131" t="s">
+        <v>2978</v>
+      </c>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
+      <c r="Q58" s="131"/>
+      <c r="R58" s="131"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="131"/>
+      <c r="U58" s="131"/>
+      <c r="V58" s="131"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="131"/>
+      <c r="Y58" s="131"/>
+      <c r="Z58" s="131"/>
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
+      <c r="AD58" s="131"/>
+      <c r="AE58" s="131"/>
+      <c r="AF58" s="131"/>
+      <c r="AG58" s="131"/>
+      <c r="AH58" s="131"/>
+      <c r="AI58" s="131"/>
+      <c r="AJ58" s="131"/>
+      <c r="AK58" s="131"/>
+      <c r="AL58" s="131"/>
+      <c r="AM58" s="131"/>
+      <c r="AN58" s="131"/>
+      <c r="AO58" s="131"/>
+      <c r="AP58" s="131"/>
+      <c r="AQ58" s="131"/>
+      <c r="AR58" s="131"/>
+      <c r="AS58" s="131"/>
+      <c r="AT58" s="131"/>
+      <c r="AU58" s="131"/>
+      <c r="AV58" s="131"/>
+      <c r="AW58" s="131"/>
+      <c r="AX58" s="131"/>
+      <c r="AY58" s="131"/>
+      <c r="AZ58" s="131"/>
+      <c r="BA58" s="131"/>
+      <c r="BB58" s="131"/>
+      <c r="BC58" s="131"/>
+      <c r="BD58" s="131"/>
+      <c r="BE58" s="131"/>
+      <c r="BF58" s="131"/>
+      <c r="BG58" s="131"/>
+      <c r="BH58" s="131"/>
+      <c r="BI58" s="131"/>
+      <c r="BJ58" s="131"/>
+      <c r="BK58" s="131"/>
+      <c r="BL58" s="131"/>
+      <c r="BM58" s="131"/>
+      <c r="BN58" s="131"/>
+      <c r="BO58" s="131"/>
+      <c r="BP58" s="131"/>
+      <c r="BQ58" s="131"/>
+      <c r="BR58" s="131"/>
+    </row>
+    <row r="59" spans="1:70" s="137" customFormat="1">
+      <c r="A59" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B59" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C59" s="131" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D59" s="131" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E59" s="131" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="K49" s="131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="131" customFormat="1">
-      <c r="A50" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B50" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C50" s="131" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D50" s="131" t="s">
-        <v>2908</v>
-      </c>
-      <c r="E50" s="131" t="s">
-        <v>3041</v>
-      </c>
-      <c r="J50" s="131" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K50" s="131" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="131" customFormat="1">
-      <c r="A51" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B51" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D51" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="E51" s="131" t="s">
-        <v>3042</v>
-      </c>
-      <c r="J51" s="131" t="s">
+      <c r="J59" s="131" t="s">
+        <v>3004</v>
+      </c>
+      <c r="K59" s="131"/>
+      <c r="L59" s="131"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
+      <c r="O59" s="131"/>
+      <c r="P59" s="131"/>
+      <c r="Q59" s="131"/>
+      <c r="R59" s="131"/>
+      <c r="S59" s="131"/>
+      <c r="T59" s="131"/>
+      <c r="U59" s="131"/>
+      <c r="V59" s="131"/>
+      <c r="W59" s="131"/>
+      <c r="X59" s="131"/>
+      <c r="Y59" s="131"/>
+      <c r="Z59" s="131"/>
+      <c r="AA59" s="131"/>
+      <c r="AB59" s="131"/>
+      <c r="AC59" s="131"/>
+      <c r="AD59" s="131"/>
+      <c r="AE59" s="131"/>
+      <c r="AF59" s="131"/>
+      <c r="AG59" s="131"/>
+      <c r="AH59" s="131"/>
+      <c r="AI59" s="131"/>
+      <c r="AJ59" s="131"/>
+      <c r="AK59" s="131"/>
+      <c r="AL59" s="131"/>
+      <c r="AM59" s="131"/>
+      <c r="AN59" s="131"/>
+      <c r="AO59" s="131"/>
+      <c r="AP59" s="131"/>
+      <c r="AQ59" s="131"/>
+      <c r="AR59" s="131"/>
+      <c r="AS59" s="131"/>
+      <c r="AT59" s="131"/>
+      <c r="AU59" s="131"/>
+      <c r="AV59" s="131"/>
+      <c r="AW59" s="131"/>
+      <c r="AX59" s="131"/>
+      <c r="AY59" s="131"/>
+      <c r="AZ59" s="131"/>
+      <c r="BA59" s="131"/>
+      <c r="BB59" s="131"/>
+      <c r="BC59" s="131"/>
+      <c r="BD59" s="131"/>
+      <c r="BE59" s="131"/>
+      <c r="BF59" s="131"/>
+      <c r="BG59" s="131"/>
+      <c r="BH59" s="131"/>
+      <c r="BI59" s="131"/>
+      <c r="BJ59" s="131"/>
+      <c r="BK59" s="131"/>
+      <c r="BL59" s="131"/>
+      <c r="BM59" s="131"/>
+      <c r="BN59" s="131"/>
+      <c r="BO59" s="131"/>
+      <c r="BP59" s="131"/>
+      <c r="BQ59" s="131"/>
+      <c r="BR59" s="131"/>
+    </row>
+    <row r="60" spans="1:70" s="137" customFormat="1">
+      <c r="A60" s="137" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B60" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C60" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D60" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E60" s="137" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="131"/>
+      <c r="Q60" s="131"/>
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+      <c r="W60" s="131"/>
+      <c r="X60" s="131"/>
+      <c r="Y60" s="131"/>
+      <c r="Z60" s="131"/>
+      <c r="AA60" s="131"/>
+      <c r="AB60" s="131"/>
+      <c r="AC60" s="131"/>
+      <c r="AD60" s="131"/>
+      <c r="AE60" s="131"/>
+      <c r="AF60" s="131"/>
+      <c r="AG60" s="131"/>
+      <c r="AH60" s="131"/>
+      <c r="AI60" s="131"/>
+      <c r="AJ60" s="131"/>
+      <c r="AK60" s="131"/>
+      <c r="AL60" s="131"/>
+      <c r="AM60" s="131"/>
+      <c r="AN60" s="131"/>
+      <c r="AO60" s="131"/>
+      <c r="AP60" s="131"/>
+      <c r="AQ60" s="131"/>
+      <c r="AR60" s="131"/>
+      <c r="AS60" s="131"/>
+      <c r="AT60" s="131"/>
+      <c r="AU60" s="131"/>
+      <c r="AV60" s="131"/>
+      <c r="AW60" s="131"/>
+      <c r="AX60" s="131"/>
+      <c r="AY60" s="131"/>
+      <c r="AZ60" s="131"/>
+      <c r="BA60" s="131"/>
+      <c r="BB60" s="131"/>
+      <c r="BC60" s="131"/>
+      <c r="BD60" s="131"/>
+      <c r="BE60" s="131"/>
+      <c r="BF60" s="131"/>
+      <c r="BG60" s="131"/>
+      <c r="BH60" s="131"/>
+      <c r="BI60" s="131"/>
+      <c r="BJ60" s="131"/>
+      <c r="BK60" s="131"/>
+      <c r="BL60" s="131"/>
+      <c r="BM60" s="131"/>
+      <c r="BN60" s="131"/>
+      <c r="BO60" s="131"/>
+      <c r="BP60" s="131"/>
+      <c r="BQ60" s="131"/>
+      <c r="BR60" s="131"/>
+    </row>
+    <row r="61" spans="1:70" s="137" customFormat="1">
+      <c r="A61" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B61" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C61" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D61" s="131" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E61" s="131" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
+      <c r="I61" s="131" t="s">
         <v>2471</v>
       </c>
-      <c r="K51" s="131" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="131" customFormat="1">
-      <c r="A52" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B52" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C52" s="131" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D52" s="131" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E52" s="131" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F52" s="131" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="131" customFormat="1">
-      <c r="A53" s="131" t="s">
-        <v>2928</v>
-      </c>
-      <c r="B53" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C53" s="131" t="s">
+      <c r="J61" s="131" t="s">
+        <v>2973</v>
+      </c>
+      <c r="K61" s="131"/>
+      <c r="L61" s="131"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
+      <c r="O61" s="131"/>
+      <c r="P61" s="131"/>
+      <c r="Q61" s="131"/>
+      <c r="R61" s="131"/>
+      <c r="S61" s="131"/>
+      <c r="T61" s="131"/>
+      <c r="U61" s="131"/>
+      <c r="V61" s="131"/>
+      <c r="W61" s="131"/>
+      <c r="X61" s="131"/>
+      <c r="Y61" s="131"/>
+      <c r="Z61" s="131"/>
+      <c r="AA61" s="131"/>
+      <c r="AB61" s="131"/>
+      <c r="AC61" s="131"/>
+      <c r="AD61" s="131"/>
+      <c r="AE61" s="131"/>
+      <c r="AF61" s="131"/>
+      <c r="AG61" s="131"/>
+      <c r="AH61" s="131"/>
+      <c r="AI61" s="131"/>
+      <c r="AJ61" s="131"/>
+      <c r="AK61" s="131"/>
+      <c r="AL61" s="131"/>
+      <c r="AM61" s="131"/>
+      <c r="AN61" s="131"/>
+      <c r="AO61" s="131"/>
+      <c r="AP61" s="131"/>
+      <c r="AQ61" s="131"/>
+      <c r="AR61" s="131"/>
+      <c r="AS61" s="131"/>
+      <c r="AT61" s="131"/>
+      <c r="AU61" s="131"/>
+      <c r="AV61" s="131"/>
+      <c r="AW61" s="131"/>
+      <c r="AX61" s="131"/>
+      <c r="AY61" s="131"/>
+      <c r="AZ61" s="131"/>
+      <c r="BA61" s="131"/>
+      <c r="BB61" s="131"/>
+      <c r="BC61" s="131"/>
+      <c r="BD61" s="131"/>
+      <c r="BE61" s="131"/>
+      <c r="BF61" s="131"/>
+      <c r="BG61" s="131"/>
+      <c r="BH61" s="131"/>
+      <c r="BI61" s="131"/>
+      <c r="BJ61" s="131"/>
+      <c r="BK61" s="131"/>
+      <c r="BL61" s="131"/>
+      <c r="BM61" s="131"/>
+      <c r="BN61" s="131"/>
+      <c r="BO61" s="131"/>
+      <c r="BP61" s="131"/>
+      <c r="BQ61" s="131"/>
+      <c r="BR61" s="131"/>
+    </row>
+    <row r="62" spans="1:70" s="131" customFormat="1">
+      <c r="A62" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B62" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C62" s="131" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D62" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="E62" s="131" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F62" s="131" t="s">
+        <v>2919</v>
+      </c>
+      <c r="I62" s="131" t="s">
+        <v>2917</v>
+      </c>
+      <c r="J62" s="131" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:70" s="131" customFormat="1">
+      <c r="A63" s="131" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B63" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C63" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D63" s="131" t="s">
+        <v>2839</v>
+      </c>
+      <c r="E63" s="131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F63" s="131" t="s">
+        <v>2921</v>
+      </c>
+      <c r="I63" s="131" t="s">
         <v>2923</v>
       </c>
-      <c r="D53" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E53" s="131" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F53" s="131" t="s">
-        <v>3048</v>
-      </c>
-      <c r="H53" s="137" t="s">
-        <v>3052</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="131" customFormat="1">
-      <c r="A54" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B54" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C54" s="131" t="s">
-        <v>2925</v>
-      </c>
-      <c r="D54" s="131" t="s">
-        <v>2925</v>
-      </c>
-      <c r="E54" s="131" t="s">
-        <v>3020</v>
-      </c>
-      <c r="J54" s="131" t="s">
-        <v>2956</v>
-      </c>
-      <c r="K54" s="131" t="s">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="131" customFormat="1">
-      <c r="A55" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B55" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C55" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="D55" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="E55" s="131" t="s">
-        <v>3026</v>
-      </c>
-      <c r="G55" s="131" t="s">
-        <v>2961</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="131" customFormat="1">
-      <c r="A56" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B56" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D56" s="131" t="s">
-        <v>2906</v>
-      </c>
-      <c r="E56" s="131" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="131" customFormat="1">
-      <c r="A57" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B57" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C57" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="D57" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="E57" s="131" t="s">
-        <v>3030</v>
-      </c>
-      <c r="J57" s="131" t="s">
-        <v>2952</v>
-      </c>
-      <c r="K57" s="131" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="131" customFormat="1">
-      <c r="A58" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B58" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C58" s="131" t="s">
-        <v>2926</v>
-      </c>
-      <c r="D58" s="131" t="s">
-        <v>2926</v>
-      </c>
-      <c r="E58" s="131" t="s">
-        <v>3033</v>
-      </c>
-      <c r="F58" s="131" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="131" customFormat="1">
-      <c r="A59" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B59" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C59" s="131" t="s">
-        <v>2922</v>
-      </c>
-      <c r="D59" s="131" t="s">
-        <v>3039</v>
-      </c>
-      <c r="E59" s="131" t="s">
-        <v>3040</v>
-      </c>
-      <c r="J59" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="K59" s="131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="131" customFormat="1">
-      <c r="A60" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B60" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C60" s="131" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D60" s="131" t="s">
-        <v>2908</v>
-      </c>
-      <c r="E60" s="131" t="s">
-        <v>3041</v>
-      </c>
-      <c r="J60" s="131" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K60" s="131" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="131" customFormat="1">
-      <c r="A61" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B61" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C61" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D61" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="E61" s="131" t="s">
-        <v>3042</v>
-      </c>
-      <c r="J61" s="131" t="s">
-        <v>2471</v>
-      </c>
-      <c r="K61" s="131" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="131" customFormat="1">
-      <c r="A62" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B62" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C62" s="131" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D62" s="131" t="s">
-        <v>3044</v>
-      </c>
-      <c r="E62" s="131" t="s">
-        <v>3045</v>
-      </c>
-      <c r="F62" s="131" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="131" customFormat="1">
-      <c r="A63" s="131" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B63" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C63" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="D63" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="E63" s="131" t="s">
-        <v>3047</v>
-      </c>
-      <c r="F63" s="131" t="s">
-        <v>3048</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="131" customFormat="1">
+      <c r="J63" s="131" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="64" spans="1:70" s="131" customFormat="1">
       <c r="A64" s="131" t="s">
-        <v>2905</v>
+        <v>2821</v>
       </c>
       <c r="B64" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C64" s="131" t="s">
         <v>2815</v>
       </c>
       <c r="D64" s="131" t="s">
-        <v>2848</v>
+        <v>2820</v>
       </c>
       <c r="E64" s="131" t="s">
-        <v>3030</v>
+        <v>2906</v>
+      </c>
+      <c r="I64" s="131" t="s">
+        <v>3002</v>
       </c>
       <c r="J64" s="131" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:70" s="131" customFormat="1">
+      <c r="A65" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B65" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C65" s="131" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D65" s="131" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E65" s="131" t="s">
+        <v>2925</v>
+      </c>
+      <c r="I65" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="J65" s="131" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:70" s="131" customFormat="1">
+      <c r="A66" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B66" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C66" s="131" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D66" s="131" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E66" s="131" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G66" s="134" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H66" s="134"/>
+      <c r="I66" s="131" t="s">
+        <v>2928</v>
+      </c>
+      <c r="J66" s="131" t="s">
+        <v>3005</v>
+      </c>
+      <c r="K66" s="134"/>
+    </row>
+    <row r="67" spans="1:70" s="131" customFormat="1">
+      <c r="A67" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B67" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C67" s="131" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D67" s="131" t="s">
+        <v>2830</v>
+      </c>
+      <c r="E67" s="131" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G67" s="131" t="s">
+        <v>2930</v>
+      </c>
+      <c r="I67" s="131" t="s">
+        <v>2951</v>
+      </c>
+      <c r="J67" s="131" t="s">
+        <v>2992</v>
+      </c>
+      <c r="K67" s="134"/>
+    </row>
+    <row r="68" spans="1:70" s="131" customFormat="1">
+      <c r="A68" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B68" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C68" s="131" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D68" s="131" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E68" s="131" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F68" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I68" s="131" t="s">
+        <v>2950</v>
+      </c>
+      <c r="J68" s="131" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:70" s="131" customFormat="1">
+      <c r="A69" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B69" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C69" s="131" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D69" s="131" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E69" s="131" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F69" s="131" t="s">
+        <v>2936</v>
+      </c>
+      <c r="I69" s="131" t="s">
+        <v>2949</v>
+      </c>
+      <c r="J69" s="131" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:70" s="131" customFormat="1">
+      <c r="A70" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B70" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C70" s="131" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D70" s="131" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E70" s="131" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F70" s="131" t="s">
+        <v>2938</v>
+      </c>
+      <c r="I70" s="131" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:70" s="131" customFormat="1">
+      <c r="A71" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B71" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C71" s="131" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D71" s="131" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E71" s="131" t="s">
+        <v>2939</v>
+      </c>
+      <c r="F71" s="131" t="s">
+        <v>2933</v>
+      </c>
+      <c r="I71" s="131" t="s">
+        <v>2964</v>
+      </c>
+      <c r="J71" s="131" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="72" spans="1:70" s="131" customFormat="1">
+      <c r="A72" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B72" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C72" s="131" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D72" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E72" s="131" t="s">
+        <v>2941</v>
+      </c>
+      <c r="I72" s="131" t="s">
+        <v>2940</v>
+      </c>
+      <c r="J72" s="131" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="73" spans="1:70" s="131" customFormat="1">
+      <c r="A73" s="137" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B73" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C73" s="137" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D73" s="137" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E73" s="137" t="s">
+        <v>2942</v>
+      </c>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+    </row>
+    <row r="74" spans="1:70" s="137" customFormat="1">
+      <c r="A74" s="137" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B74" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C74" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D74" s="137" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E74" s="138" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L74" s="131"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="131"/>
+      <c r="P74" s="131"/>
+      <c r="Q74" s="131"/>
+      <c r="R74" s="131"/>
+      <c r="S74" s="131"/>
+      <c r="T74" s="131"/>
+      <c r="U74" s="131"/>
+      <c r="V74" s="131"/>
+      <c r="W74" s="131"/>
+      <c r="X74" s="131"/>
+      <c r="Y74" s="131"/>
+      <c r="Z74" s="131"/>
+      <c r="AA74" s="131"/>
+      <c r="AB74" s="131"/>
+      <c r="AC74" s="131"/>
+      <c r="AD74" s="131"/>
+      <c r="AE74" s="131"/>
+      <c r="AF74" s="131"/>
+      <c r="AG74" s="131"/>
+      <c r="AH74" s="131"/>
+      <c r="AI74" s="131"/>
+      <c r="AJ74" s="131"/>
+      <c r="AK74" s="131"/>
+      <c r="AL74" s="131"/>
+      <c r="AM74" s="131"/>
+      <c r="AN74" s="131"/>
+      <c r="AO74" s="131"/>
+      <c r="AP74" s="131"/>
+      <c r="AQ74" s="131"/>
+      <c r="AR74" s="131"/>
+      <c r="AS74" s="131"/>
+      <c r="AT74" s="131"/>
+      <c r="AU74" s="131"/>
+      <c r="AV74" s="131"/>
+      <c r="AW74" s="131"/>
+      <c r="AX74" s="131"/>
+      <c r="AY74" s="131"/>
+      <c r="AZ74" s="131"/>
+      <c r="BA74" s="131"/>
+      <c r="BB74" s="131"/>
+      <c r="BC74" s="131"/>
+      <c r="BD74" s="131"/>
+      <c r="BE74" s="131"/>
+      <c r="BF74" s="131"/>
+      <c r="BG74" s="131"/>
+      <c r="BH74" s="131"/>
+      <c r="BI74" s="131"/>
+      <c r="BJ74" s="131"/>
+      <c r="BK74" s="131"/>
+      <c r="BL74" s="131"/>
+      <c r="BM74" s="131"/>
+      <c r="BN74" s="131"/>
+      <c r="BO74" s="131"/>
+      <c r="BP74" s="131"/>
+      <c r="BQ74" s="131"/>
+      <c r="BR74" s="131"/>
+    </row>
+    <row r="75" spans="1:70" s="137" customFormat="1">
+      <c r="A75" s="137" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B75" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C75" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D75" s="137" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E75" s="137" t="s">
+        <v>2905</v>
+      </c>
+      <c r="L75" s="131"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
+      <c r="O75" s="131"/>
+      <c r="P75" s="131"/>
+      <c r="Q75" s="131"/>
+      <c r="R75" s="131"/>
+      <c r="S75" s="131"/>
+      <c r="T75" s="131"/>
+      <c r="U75" s="131"/>
+      <c r="V75" s="131"/>
+      <c r="W75" s="131"/>
+      <c r="X75" s="131"/>
+      <c r="Y75" s="131"/>
+      <c r="Z75" s="131"/>
+      <c r="AA75" s="131"/>
+      <c r="AB75" s="131"/>
+      <c r="AC75" s="131"/>
+      <c r="AD75" s="131"/>
+      <c r="AE75" s="131"/>
+      <c r="AF75" s="131"/>
+      <c r="AG75" s="131"/>
+      <c r="AH75" s="131"/>
+      <c r="AI75" s="131"/>
+      <c r="AJ75" s="131"/>
+      <c r="AK75" s="131"/>
+      <c r="AL75" s="131"/>
+      <c r="AM75" s="131"/>
+      <c r="AN75" s="131"/>
+      <c r="AO75" s="131"/>
+      <c r="AP75" s="131"/>
+      <c r="AQ75" s="131"/>
+      <c r="AR75" s="131"/>
+      <c r="AS75" s="131"/>
+      <c r="AT75" s="131"/>
+      <c r="AU75" s="131"/>
+      <c r="AV75" s="131"/>
+      <c r="AW75" s="131"/>
+      <c r="AX75" s="131"/>
+      <c r="AY75" s="131"/>
+      <c r="AZ75" s="131"/>
+      <c r="BA75" s="131"/>
+      <c r="BB75" s="131"/>
+      <c r="BC75" s="131"/>
+      <c r="BD75" s="131"/>
+      <c r="BE75" s="131"/>
+      <c r="BF75" s="131"/>
+      <c r="BG75" s="131"/>
+      <c r="BH75" s="131"/>
+      <c r="BI75" s="131"/>
+      <c r="BJ75" s="131"/>
+      <c r="BK75" s="131"/>
+      <c r="BL75" s="131"/>
+      <c r="BM75" s="131"/>
+      <c r="BN75" s="131"/>
+      <c r="BO75" s="131"/>
+      <c r="BP75" s="131"/>
+      <c r="BQ75" s="131"/>
+      <c r="BR75" s="131"/>
+    </row>
+    <row r="76" spans="1:70" s="137" customFormat="1">
+      <c r="A76" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B76" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C76" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D76" s="131" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E76" s="131" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F76" s="131"/>
+      <c r="G76" s="131"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="131" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76" s="131" t="s">
+        <v>1635</v>
+      </c>
+      <c r="K76" s="131"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
+      <c r="O76" s="131"/>
+      <c r="P76" s="131"/>
+      <c r="Q76" s="131"/>
+      <c r="R76" s="131"/>
+      <c r="S76" s="131"/>
+      <c r="T76" s="131"/>
+      <c r="U76" s="131"/>
+      <c r="V76" s="131"/>
+      <c r="W76" s="131"/>
+      <c r="X76" s="131"/>
+      <c r="Y76" s="131"/>
+      <c r="Z76" s="131"/>
+      <c r="AA76" s="131"/>
+      <c r="AB76" s="131"/>
+      <c r="AC76" s="131"/>
+      <c r="AD76" s="131"/>
+      <c r="AE76" s="131"/>
+      <c r="AF76" s="131"/>
+      <c r="AG76" s="131"/>
+      <c r="AH76" s="131"/>
+      <c r="AI76" s="131"/>
+      <c r="AJ76" s="131"/>
+      <c r="AK76" s="131"/>
+      <c r="AL76" s="131"/>
+      <c r="AM76" s="131"/>
+      <c r="AN76" s="131"/>
+      <c r="AO76" s="131"/>
+      <c r="AP76" s="131"/>
+      <c r="AQ76" s="131"/>
+      <c r="AR76" s="131"/>
+      <c r="AS76" s="131"/>
+      <c r="AT76" s="131"/>
+      <c r="AU76" s="131"/>
+      <c r="AV76" s="131"/>
+      <c r="AW76" s="131"/>
+      <c r="AX76" s="131"/>
+      <c r="AY76" s="131"/>
+      <c r="AZ76" s="131"/>
+      <c r="BA76" s="131"/>
+      <c r="BB76" s="131"/>
+      <c r="BC76" s="131"/>
+      <c r="BD76" s="131"/>
+      <c r="BE76" s="131"/>
+      <c r="BF76" s="131"/>
+      <c r="BG76" s="131"/>
+      <c r="BH76" s="131"/>
+      <c r="BI76" s="131"/>
+      <c r="BJ76" s="131"/>
+      <c r="BK76" s="131"/>
+      <c r="BL76" s="131"/>
+      <c r="BM76" s="131"/>
+      <c r="BN76" s="131"/>
+      <c r="BO76" s="131"/>
+      <c r="BP76" s="131"/>
+      <c r="BQ76" s="131"/>
+      <c r="BR76" s="131"/>
+    </row>
+    <row r="77" spans="1:70" s="137" customFormat="1">
+      <c r="A77" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B77" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C77" s="131" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D77" s="131" t="s">
+        <v>2829</v>
+      </c>
+      <c r="E77" s="131" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F77" s="131"/>
+      <c r="G77" s="131"/>
+      <c r="H77" s="131"/>
+      <c r="I77" s="131" t="s">
+        <v>2953</v>
+      </c>
+      <c r="J77" s="131" t="s">
+        <v>2976</v>
+      </c>
+      <c r="K77" s="131"/>
+      <c r="L77" s="131"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
+      <c r="O77" s="131"/>
+      <c r="P77" s="131"/>
+      <c r="Q77" s="131"/>
+      <c r="R77" s="131"/>
+      <c r="S77" s="131"/>
+      <c r="T77" s="131"/>
+      <c r="U77" s="131"/>
+      <c r="V77" s="131"/>
+      <c r="W77" s="131"/>
+      <c r="X77" s="131"/>
+      <c r="Y77" s="131"/>
+      <c r="Z77" s="131"/>
+      <c r="AA77" s="131"/>
+      <c r="AB77" s="131"/>
+      <c r="AC77" s="131"/>
+      <c r="AD77" s="131"/>
+      <c r="AE77" s="131"/>
+      <c r="AF77" s="131"/>
+      <c r="AG77" s="131"/>
+      <c r="AH77" s="131"/>
+      <c r="AI77" s="131"/>
+      <c r="AJ77" s="131"/>
+      <c r="AK77" s="131"/>
+      <c r="AL77" s="131"/>
+      <c r="AM77" s="131"/>
+      <c r="AN77" s="131"/>
+      <c r="AO77" s="131"/>
+      <c r="AP77" s="131"/>
+      <c r="AQ77" s="131"/>
+      <c r="AR77" s="131"/>
+      <c r="AS77" s="131"/>
+      <c r="AT77" s="131"/>
+      <c r="AU77" s="131"/>
+      <c r="AV77" s="131"/>
+      <c r="AW77" s="131"/>
+      <c r="AX77" s="131"/>
+      <c r="AY77" s="131"/>
+      <c r="AZ77" s="131"/>
+      <c r="BA77" s="131"/>
+      <c r="BB77" s="131"/>
+      <c r="BC77" s="131"/>
+      <c r="BD77" s="131"/>
+      <c r="BE77" s="131"/>
+      <c r="BF77" s="131"/>
+      <c r="BG77" s="131"/>
+      <c r="BH77" s="131"/>
+      <c r="BI77" s="131"/>
+      <c r="BJ77" s="131"/>
+      <c r="BK77" s="131"/>
+      <c r="BL77" s="131"/>
+      <c r="BM77" s="131"/>
+      <c r="BN77" s="131"/>
+      <c r="BO77" s="131"/>
+      <c r="BP77" s="131"/>
+      <c r="BQ77" s="131"/>
+      <c r="BR77" s="131"/>
+    </row>
+    <row r="78" spans="1:70" s="137" customFormat="1">
+      <c r="A78" s="131" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B78" s="131" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C78" s="131" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D78" s="131" t="s">
+        <v>2827</v>
+      </c>
+      <c r="E78" s="131" t="s">
+        <v>2945</v>
+      </c>
+      <c r="F78" s="131"/>
+      <c r="G78" s="131"/>
+      <c r="H78" s="131" t="s">
+        <v>2946</v>
+      </c>
+      <c r="I78" s="131" t="s">
         <v>2952</v>
       </c>
-      <c r="K64" s="131" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="131" customFormat="1">
-      <c r="A65" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B65" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C65" s="131" t="s">
-        <v>2912</v>
-      </c>
-      <c r="D65" s="131" t="s">
-        <v>2912</v>
-      </c>
-      <c r="E65" s="131" t="s">
-        <v>3053</v>
-      </c>
-      <c r="J65" s="131" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="131" customFormat="1">
-      <c r="A66" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B66" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C66" s="131" t="s">
-        <v>2919</v>
-      </c>
-      <c r="D66" s="131" t="s">
-        <v>2919</v>
-      </c>
-      <c r="E66" s="131" t="s">
-        <v>3054</v>
-      </c>
-      <c r="G66" s="137" t="s">
-        <v>3055</v>
-      </c>
-      <c r="H66" s="137"/>
-      <c r="I66" s="137" t="s">
-        <v>3056</v>
-      </c>
-      <c r="J66" s="131" t="s">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="131" customFormat="1">
-      <c r="A67" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B67" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C67" s="131" t="s">
-        <v>2914</v>
-      </c>
-      <c r="D67" s="131" t="s">
-        <v>2914</v>
-      </c>
-      <c r="E67" s="131" t="s">
-        <v>3058</v>
-      </c>
-      <c r="G67" s="131" t="s">
-        <v>3059</v>
-      </c>
-      <c r="I67" s="137" t="s">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="131" customFormat="1">
-      <c r="A68" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B68" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C68" s="131" t="s">
-        <v>2920</v>
-      </c>
-      <c r="D68" s="131" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E68" s="131" t="s">
-        <v>3062</v>
-      </c>
-      <c r="F68" s="131" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="131" customFormat="1">
-      <c r="A69" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B69" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C69" s="131" t="s">
-        <v>2917</v>
-      </c>
-      <c r="D69" s="131" t="s">
-        <v>3064</v>
-      </c>
-      <c r="E69" s="131" t="s">
-        <v>3065</v>
-      </c>
-      <c r="F69" s="131" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="134" customFormat="1">
-      <c r="A70" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B70" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C70" s="134" t="s">
-        <v>2918</v>
-      </c>
-      <c r="D70" s="134" t="s">
-        <v>2918</v>
-      </c>
-      <c r="E70" s="134" t="s">
-        <v>3067</v>
-      </c>
-      <c r="F70" s="134" t="s">
-        <v>3068</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="131" customFormat="1">
-      <c r="A71" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B71" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C71" s="131" t="s">
-        <v>2916</v>
-      </c>
-      <c r="D71" s="131" t="s">
-        <v>2916</v>
-      </c>
-      <c r="E71" s="131" t="s">
-        <v>3069</v>
-      </c>
-      <c r="F71" s="131" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="131" customFormat="1">
-      <c r="A72" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B72" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C72" s="131" t="s">
+      <c r="J78" s="131" t="s">
+        <v>2977</v>
+      </c>
+      <c r="K78" s="131"/>
+      <c r="L78" s="131"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
+      <c r="O78" s="131"/>
+      <c r="P78" s="131"/>
+      <c r="Q78" s="131"/>
+      <c r="R78" s="131"/>
+      <c r="S78" s="131"/>
+      <c r="T78" s="131"/>
+      <c r="U78" s="131"/>
+      <c r="V78" s="131"/>
+      <c r="W78" s="131"/>
+      <c r="X78" s="131"/>
+      <c r="Y78" s="131"/>
+      <c r="Z78" s="131"/>
+      <c r="AA78" s="131"/>
+      <c r="AB78" s="131"/>
+      <c r="AC78" s="131"/>
+      <c r="AD78" s="131"/>
+      <c r="AE78" s="131"/>
+      <c r="AF78" s="131"/>
+      <c r="AG78" s="131"/>
+      <c r="AH78" s="131"/>
+      <c r="AI78" s="131"/>
+      <c r="AJ78" s="131"/>
+      <c r="AK78" s="131"/>
+      <c r="AL78" s="131"/>
+      <c r="AM78" s="131"/>
+      <c r="AN78" s="131"/>
+      <c r="AO78" s="131"/>
+      <c r="AP78" s="131"/>
+      <c r="AQ78" s="131"/>
+      <c r="AR78" s="131"/>
+      <c r="AS78" s="131"/>
+      <c r="AT78" s="131"/>
+      <c r="AU78" s="131"/>
+      <c r="AV78" s="131"/>
+      <c r="AW78" s="131"/>
+      <c r="AX78" s="131"/>
+      <c r="AY78" s="131"/>
+      <c r="AZ78" s="131"/>
+      <c r="BA78" s="131"/>
+      <c r="BB78" s="131"/>
+      <c r="BC78" s="131"/>
+      <c r="BD78" s="131"/>
+      <c r="BE78" s="131"/>
+      <c r="BF78" s="131"/>
+      <c r="BG78" s="131"/>
+      <c r="BH78" s="131"/>
+      <c r="BI78" s="131"/>
+      <c r="BJ78" s="131"/>
+      <c r="BK78" s="131"/>
+      <c r="BL78" s="131"/>
+      <c r="BM78" s="131"/>
+      <c r="BN78" s="131"/>
+      <c r="BO78" s="131"/>
+      <c r="BP78" s="131"/>
+      <c r="BQ78" s="131"/>
+      <c r="BR78" s="131"/>
+    </row>
+    <row r="79" spans="1:70" s="137" customFormat="1">
+      <c r="A79" s="137" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B79" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C79" s="137" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D79" s="137" t="s">
+        <v>2826</v>
+      </c>
+      <c r="E79" s="137" t="s">
+        <v>2947</v>
+      </c>
+      <c r="L79" s="131"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
+      <c r="O79" s="131"/>
+      <c r="P79" s="131"/>
+      <c r="Q79" s="131"/>
+      <c r="R79" s="131"/>
+      <c r="S79" s="131"/>
+      <c r="T79" s="131"/>
+      <c r="U79" s="131"/>
+      <c r="V79" s="131"/>
+      <c r="W79" s="131"/>
+      <c r="X79" s="131"/>
+      <c r="Y79" s="131"/>
+      <c r="Z79" s="131"/>
+      <c r="AA79" s="131"/>
+      <c r="AB79" s="131"/>
+      <c r="AC79" s="131"/>
+      <c r="AD79" s="131"/>
+      <c r="AE79" s="131"/>
+      <c r="AF79" s="131"/>
+      <c r="AG79" s="131"/>
+      <c r="AH79" s="131"/>
+      <c r="AI79" s="131"/>
+      <c r="AJ79" s="131"/>
+      <c r="AK79" s="131"/>
+      <c r="AL79" s="131"/>
+      <c r="AM79" s="131"/>
+      <c r="AN79" s="131"/>
+      <c r="AO79" s="131"/>
+      <c r="AP79" s="131"/>
+      <c r="AQ79" s="131"/>
+      <c r="AR79" s="131"/>
+      <c r="AS79" s="131"/>
+      <c r="AT79" s="131"/>
+      <c r="AU79" s="131"/>
+      <c r="AV79" s="131"/>
+      <c r="AW79" s="131"/>
+      <c r="AX79" s="131"/>
+      <c r="AY79" s="131"/>
+      <c r="AZ79" s="131"/>
+      <c r="BA79" s="131"/>
+      <c r="BB79" s="131"/>
+      <c r="BC79" s="131"/>
+      <c r="BD79" s="131"/>
+      <c r="BE79" s="131"/>
+      <c r="BF79" s="131"/>
+      <c r="BG79" s="131"/>
+      <c r="BH79" s="131"/>
+      <c r="BI79" s="131"/>
+      <c r="BJ79" s="131"/>
+      <c r="BK79" s="131"/>
+      <c r="BL79" s="131"/>
+      <c r="BM79" s="131"/>
+      <c r="BN79" s="131"/>
+      <c r="BO79" s="131"/>
+      <c r="BP79" s="131"/>
+      <c r="BQ79" s="131"/>
+      <c r="BR79" s="131"/>
+    </row>
+    <row r="80" spans="1:70" s="137" customFormat="1">
+      <c r="A80" s="137" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B80" s="137" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C80" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D80" s="137" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E80" s="137" t="s">
         <v>2915</v>
       </c>
-      <c r="D72" s="131" t="s">
-        <v>3070</v>
-      </c>
-      <c r="E72" s="131" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="134" customFormat="1">
-      <c r="A73" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B73" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C73" s="134" t="s">
-        <v>2909</v>
-      </c>
-      <c r="D73" s="134" t="s">
-        <v>2909</v>
-      </c>
-      <c r="E73" s="134" t="s">
-        <v>3072</v>
-      </c>
-      <c r="I73" s="134" t="s">
-        <v>2962</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="134" customFormat="1">
-      <c r="A74" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B74" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C74" s="134" t="s">
-        <v>2907</v>
-      </c>
-      <c r="D74" s="134" t="s">
-        <v>2907</v>
-      </c>
-      <c r="E74" s="140" t="s">
-        <v>3028</v>
-      </c>
-      <c r="J74" s="134" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K74" s="134" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="134" customFormat="1">
-      <c r="A75" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B75" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C75" s="134" t="s">
-        <v>2906</v>
-      </c>
-      <c r="D75" s="134" t="s">
-        <v>2906</v>
-      </c>
-      <c r="E75" s="134" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="131" customFormat="1">
-      <c r="A76" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B76" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C76" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D76" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="E76" s="131" t="s">
-        <v>3073</v>
-      </c>
-      <c r="J76" s="131" t="s">
-        <v>1724</v>
-      </c>
-      <c r="K76" s="131" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="131" customFormat="1">
-      <c r="A77" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B77" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C77" s="131" t="s">
-        <v>2913</v>
-      </c>
-      <c r="D77" s="131" t="s">
-        <v>2913</v>
-      </c>
-      <c r="E77" s="131" t="s">
-        <v>3074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="131" customFormat="1">
-      <c r="A78" s="131" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B78" s="131" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C78" s="131" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D78" s="131" t="s">
-        <v>2911</v>
-      </c>
-      <c r="E78" s="131" t="s">
-        <v>3075</v>
-      </c>
-      <c r="H78" s="131" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="134" customFormat="1">
-      <c r="A79" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B79" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C79" s="134" t="s">
-        <v>2910</v>
-      </c>
-      <c r="D79" s="134" t="s">
-        <v>2910</v>
-      </c>
-      <c r="E79" s="134" t="s">
-        <v>3077</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="134" customFormat="1">
-      <c r="A80" s="134" t="s">
-        <v>2905</v>
-      </c>
-      <c r="B80" s="134" t="s">
-        <v>3018</v>
-      </c>
-      <c r="C80" s="134" t="s">
-        <v>2908</v>
-      </c>
-      <c r="D80" s="134" t="s">
-        <v>2908</v>
-      </c>
-      <c r="E80" s="134" t="s">
-        <v>3041</v>
-      </c>
-      <c r="J80" s="134" t="s">
-        <v>2965</v>
-      </c>
-      <c r="K80" s="134" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="131" customFormat="1">
+      <c r="L80" s="131"/>
+      <c r="M80" s="131"/>
+      <c r="N80" s="131"/>
+      <c r="O80" s="131"/>
+      <c r="P80" s="131"/>
+      <c r="Q80" s="131"/>
+      <c r="R80" s="131"/>
+      <c r="S80" s="131"/>
+      <c r="T80" s="131"/>
+      <c r="U80" s="131"/>
+      <c r="V80" s="131"/>
+      <c r="W80" s="131"/>
+      <c r="X80" s="131"/>
+      <c r="Y80" s="131"/>
+      <c r="Z80" s="131"/>
+      <c r="AA80" s="131"/>
+      <c r="AB80" s="131"/>
+      <c r="AC80" s="131"/>
+      <c r="AD80" s="131"/>
+      <c r="AE80" s="131"/>
+      <c r="AF80" s="131"/>
+      <c r="AG80" s="131"/>
+      <c r="AH80" s="131"/>
+      <c r="AI80" s="131"/>
+      <c r="AJ80" s="131"/>
+      <c r="AK80" s="131"/>
+      <c r="AL80" s="131"/>
+      <c r="AM80" s="131"/>
+      <c r="AN80" s="131"/>
+      <c r="AO80" s="131"/>
+      <c r="AP80" s="131"/>
+      <c r="AQ80" s="131"/>
+      <c r="AR80" s="131"/>
+      <c r="AS80" s="131"/>
+      <c r="AT80" s="131"/>
+      <c r="AU80" s="131"/>
+      <c r="AV80" s="131"/>
+      <c r="AW80" s="131"/>
+      <c r="AX80" s="131"/>
+      <c r="AY80" s="131"/>
+      <c r="AZ80" s="131"/>
+      <c r="BA80" s="131"/>
+      <c r="BB80" s="131"/>
+      <c r="BC80" s="131"/>
+      <c r="BD80" s="131"/>
+      <c r="BE80" s="131"/>
+      <c r="BF80" s="131"/>
+      <c r="BG80" s="131"/>
+      <c r="BH80" s="131"/>
+      <c r="BI80" s="131"/>
+      <c r="BJ80" s="131"/>
+      <c r="BK80" s="131"/>
+      <c r="BL80" s="131"/>
+      <c r="BM80" s="131"/>
+      <c r="BN80" s="131"/>
+      <c r="BO80" s="131"/>
+      <c r="BP80" s="131"/>
+      <c r="BQ80" s="131"/>
+      <c r="BR80" s="131"/>
+    </row>
+    <row r="81" spans="1:70" s="137" customFormat="1">
       <c r="A81" s="131" t="s">
-        <v>2905</v>
+        <v>2821</v>
       </c>
       <c r="B81" s="131" t="s">
-        <v>3018</v>
+        <v>2898</v>
       </c>
       <c r="C81" s="131" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="D81" s="131" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="E81" s="131" t="s">
-        <v>3078</v>
+        <v>2948</v>
+      </c>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131" t="s">
+        <v>2471</v>
       </c>
       <c r="J81" s="131" t="s">
-        <v>2471</v>
-      </c>
-      <c r="K81" s="131" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="131" customFormat="1"/>
-    <row r="83" spans="1:11" s="131" customFormat="1">
-      <c r="A83" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B83" s="131" t="s">
-        <v>2831</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>2831</v>
-      </c>
-      <c r="D83" s="131" t="s">
-        <v>3079</v>
-      </c>
-      <c r="E83" s="131" t="s">
-        <v>3080</v>
-      </c>
-      <c r="H83" s="137"/>
-    </row>
-    <row r="84" spans="1:11" s="131" customFormat="1">
-      <c r="A84" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B84" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="C84" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="D84" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="E84" s="131" t="s">
-        <v>3081</v>
-      </c>
-      <c r="F84" s="131" t="s">
-        <v>3082</v>
-      </c>
-      <c r="H84" s="131" t="s">
-        <v>2904</v>
-      </c>
-      <c r="I84" s="131" t="s">
-        <v>2955</v>
-      </c>
-      <c r="J84" s="131" t="s">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="131" customFormat="1">
-      <c r="A85" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B85" s="131" t="s">
-        <v>2862</v>
-      </c>
-      <c r="C85" s="131" t="s">
-        <v>2862</v>
-      </c>
-      <c r="D85" s="131" t="s">
-        <v>3083</v>
-      </c>
-      <c r="E85" s="131" t="s">
-        <v>3084</v>
-      </c>
-      <c r="F85" s="131" t="s">
-        <v>3085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="138" customFormat="1">
-      <c r="A86" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B86" s="138" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C86" s="138" t="s">
-        <v>2895</v>
-      </c>
-      <c r="D86" s="138" t="s">
-        <v>3086</v>
-      </c>
-      <c r="F86" s="138" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="138" customFormat="1">
-      <c r="A87" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B87" s="138" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C87" s="138" t="s">
-        <v>2892</v>
-      </c>
-      <c r="D87" s="138" t="s">
-        <v>3088</v>
-      </c>
-      <c r="F87" s="138" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="131" customFormat="1">
-      <c r="A88" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B88" s="131" t="s">
-        <v>2885</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>2885</v>
-      </c>
-      <c r="D88" s="131" t="s">
-        <v>3089</v>
-      </c>
-      <c r="E88" s="131" t="s">
-        <v>3090</v>
-      </c>
-      <c r="F88" s="131" t="s">
-        <v>3085</v>
-      </c>
-      <c r="I88" s="131" t="s">
-        <v>2726</v>
-      </c>
-      <c r="J88" s="131" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="138" customFormat="1">
-      <c r="A89" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B89" s="138" t="s">
-        <v>2899</v>
-      </c>
-      <c r="D89" s="138" t="s">
-        <v>3091</v>
-      </c>
-      <c r="H89" s="141"/>
-    </row>
-    <row r="90" spans="1:11" s="138" customFormat="1">
-      <c r="A90" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B90" s="138" t="s">
-        <v>2872</v>
-      </c>
-      <c r="H90" s="141"/>
-    </row>
-    <row r="91" spans="1:11" s="138" customFormat="1">
-      <c r="A91" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B91" s="138" t="s">
-        <v>2873</v>
-      </c>
-      <c r="H91" s="141"/>
-    </row>
-    <row r="92" spans="1:11" s="138" customFormat="1">
-      <c r="A92" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B92" s="138" t="s">
-        <v>2874</v>
-      </c>
-      <c r="H92" s="141"/>
-    </row>
-    <row r="93" spans="1:11" s="138" customFormat="1">
-      <c r="A93" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B93" s="138" t="s">
-        <v>2891</v>
-      </c>
-      <c r="C93" s="138" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D93" s="138" t="s">
-        <v>3092</v>
-      </c>
-      <c r="H93" s="141"/>
-    </row>
-    <row r="94" spans="1:11" s="131" customFormat="1">
-      <c r="A94" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B94" s="131" t="s">
-        <v>2835</v>
-      </c>
-      <c r="C94" s="131" t="s">
-        <v>2835</v>
-      </c>
-      <c r="D94" s="131" t="s">
-        <v>3093</v>
-      </c>
-      <c r="H94" s="137"/>
-    </row>
-    <row r="95" spans="1:11" s="138" customFormat="1">
-      <c r="A95" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B95" s="138" t="s">
-        <v>2855</v>
-      </c>
-      <c r="H95" s="141"/>
-    </row>
-    <row r="96" spans="1:11" s="138" customFormat="1">
-      <c r="A96" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B96" s="138" t="s">
-        <v>2826</v>
-      </c>
-      <c r="H96" s="141"/>
-    </row>
-    <row r="97" spans="1:7" s="131" customFormat="1">
-      <c r="A97" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B97" s="131" t="s">
-        <v>271</v>
-      </c>
-      <c r="C97" s="131" t="s">
-        <v>3094</v>
-      </c>
-      <c r="D97" s="131" t="s">
-        <v>3094</v>
-      </c>
-      <c r="E97" s="131" t="s">
-        <v>3094</v>
-      </c>
-      <c r="F97" s="131" t="s">
-        <v>3095</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="131" customFormat="1">
-      <c r="A98" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B98" s="131" t="s">
-        <v>2820</v>
-      </c>
-      <c r="C98" s="131" t="s">
-        <v>2820</v>
-      </c>
-      <c r="D98" s="131" t="s">
-        <v>3096</v>
-      </c>
-      <c r="E98" s="131" t="s">
-        <v>3096</v>
-      </c>
-      <c r="F98" s="131" t="s">
-        <v>3097</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="131" customFormat="1">
-      <c r="A99" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B99" s="131" t="s">
-        <v>2819</v>
-      </c>
-      <c r="C99" s="131" t="s">
-        <v>2819</v>
-      </c>
-      <c r="D99" s="131" t="s">
-        <v>3098</v>
-      </c>
-      <c r="E99" s="131" t="s">
-        <v>3098</v>
-      </c>
-      <c r="F99" s="131" t="s">
-        <v>3099</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="131" customFormat="1">
-      <c r="A100" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B100" s="131" t="s">
-        <v>2903</v>
-      </c>
-      <c r="C100" s="131" t="s">
-        <v>2903</v>
-      </c>
-      <c r="D100" s="131" t="s">
-        <v>3100</v>
-      </c>
-      <c r="F100" s="142" t="s">
-        <v>3101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="138" customFormat="1">
-      <c r="A101" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B101" s="138" t="s">
-        <v>2825</v>
-      </c>
-      <c r="D101" s="138" t="s">
-        <v>3102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="131" customFormat="1">
-      <c r="A102" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B102" s="131" t="s">
-        <v>2828</v>
-      </c>
-      <c r="D102" s="131" t="s">
-        <v>3103</v>
-      </c>
-      <c r="G102" s="131" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="131" customFormat="1">
-      <c r="A103" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B103" s="131" t="s">
-        <v>2837</v>
-      </c>
-      <c r="D103" s="131" t="s">
-        <v>3105</v>
-      </c>
-      <c r="E103" s="131" t="s">
-        <v>3106</v>
-      </c>
-      <c r="F103" s="131" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="138" customFormat="1">
-      <c r="A104" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B104" s="138" t="s">
-        <v>2894</v>
-      </c>
-      <c r="D104" s="138" t="s">
-        <v>3108</v>
-      </c>
-      <c r="F104" s="138" t="s">
-        <v>3087</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="131" customFormat="1">
-      <c r="A105" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B105" s="131" t="s">
-        <v>2836</v>
-      </c>
-      <c r="D105" s="131" t="s">
-        <v>3109</v>
-      </c>
-      <c r="E105" s="131" t="s">
-        <v>3110</v>
-      </c>
-      <c r="F105" s="131" t="s">
-        <v>3111</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="138" customFormat="1">
-      <c r="A106" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B106" s="138" t="s">
-        <v>2876</v>
-      </c>
-      <c r="G106" s="141"/>
-    </row>
-    <row r="107" spans="1:7" s="138" customFormat="1">
-      <c r="A107" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B107" s="138" t="s">
-        <v>2888</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="131" customFormat="1">
-      <c r="A108" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B108" s="131" t="s">
-        <v>2856</v>
-      </c>
-      <c r="D108" s="131" t="s">
-        <v>2856</v>
-      </c>
-      <c r="E108" s="131" t="s">
-        <v>3112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="131" customFormat="1">
-      <c r="A109" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B109" s="131" t="s">
-        <v>2870</v>
-      </c>
-      <c r="D109" s="131" t="s">
-        <v>3113</v>
-      </c>
-      <c r="E109" s="131" t="s">
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="131" customFormat="1">
-      <c r="A110" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B110" s="131" t="s">
-        <v>2871</v>
-      </c>
-      <c r="D110" s="131" t="s">
-        <v>3115</v>
-      </c>
-      <c r="E110" s="131" t="s">
-        <v>3116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="131" customFormat="1">
-      <c r="A111" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B111" s="131" t="s">
-        <v>2834</v>
-      </c>
-      <c r="D111" s="131" t="s">
-        <v>3117</v>
-      </c>
-      <c r="F111" s="131" t="s">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="138" customFormat="1">
-      <c r="A112" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B112" s="138" t="s">
-        <v>2857</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="138" customFormat="1">
-      <c r="A113" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B113" s="138" t="s">
-        <v>2853</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="138" customFormat="1">
-      <c r="A114" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B114" s="138" t="s">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="138" customFormat="1">
-      <c r="A115" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B115" s="138" t="s">
-        <v>2854</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="138" customFormat="1">
-      <c r="A116" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B116" s="138" t="s">
-        <v>2878</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="138" customFormat="1">
-      <c r="A117" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B117" s="138" t="s">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="131" customFormat="1">
-      <c r="A118" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B118" s="131" t="s">
-        <v>2839</v>
-      </c>
-      <c r="D118" s="131" t="s">
-        <v>3119</v>
-      </c>
-      <c r="F118" s="131" t="s">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="138" customFormat="1">
-      <c r="A119" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B119" s="138" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="131" customFormat="1">
-      <c r="A120" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B120" s="131" t="s">
-        <v>2881</v>
-      </c>
-      <c r="D120" s="131" t="s">
-        <v>3121</v>
-      </c>
-      <c r="E120" s="131" t="s">
-        <v>3122</v>
-      </c>
-      <c r="F120" s="131" t="s">
-        <v>3085</v>
-      </c>
-      <c r="G120" s="131" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="138" customFormat="1">
-      <c r="A121" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B121" s="138" t="s">
-        <v>2851</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" s="138" customFormat="1">
-      <c r="A122" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B122" s="138" t="s">
-        <v>2852</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="131" customFormat="1">
-      <c r="A123" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B123" s="131" t="s">
-        <v>2880</v>
-      </c>
-      <c r="D123" s="131" t="s">
-        <v>3124</v>
-      </c>
-      <c r="G123" s="131" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="131" customFormat="1">
-      <c r="A124" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B124" s="131" t="s">
-        <v>2875</v>
-      </c>
-      <c r="D124" s="131" t="s">
-        <v>2875</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="138" customFormat="1">
-      <c r="A125" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B125" s="138" t="s">
-        <v>2896</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="138" customFormat="1">
-      <c r="A126" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B126" s="138" t="s">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="138" customFormat="1">
-      <c r="A127" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B127" s="138" t="s">
-        <v>2893</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="138" customFormat="1">
-      <c r="A128" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B128" s="138" t="s">
-        <v>2824</v>
-      </c>
-      <c r="I128" s="138" t="s">
-        <v>2967</v>
-      </c>
-      <c r="J128" s="138" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="138" customFormat="1">
-      <c r="A129" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B129" s="138" t="s">
-        <v>2886</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="138" customFormat="1">
-      <c r="A130" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B130" s="138" t="s">
-        <v>2887</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="138" customFormat="1">
-      <c r="A131" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B131" s="138" t="s">
-        <v>2897</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="131" customFormat="1">
-      <c r="A132" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B132" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="D132" s="131" t="s">
-        <v>3126</v>
-      </c>
-      <c r="I132" s="131" t="s">
-        <v>2952</v>
-      </c>
-      <c r="J132" s="131" t="s">
-        <v>2951</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="131" customFormat="1">
-      <c r="A133" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B133" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D133" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="G133" s="131" t="s">
-        <v>3127</v>
-      </c>
-      <c r="I133" s="131" t="s">
-        <v>1724</v>
-      </c>
-      <c r="J133" s="131" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="138" customFormat="1">
-      <c r="A134" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B134" s="138" t="s">
-        <v>2898</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="138" customFormat="1">
-      <c r="A135" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B135" s="138" t="s">
-        <v>2889</v>
-      </c>
-      <c r="D135" s="138" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" s="138" customFormat="1">
-      <c r="A136" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B136" s="138" t="s">
-        <v>2890</v>
-      </c>
-      <c r="D136" s="138" t="s">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="131" customFormat="1">
-      <c r="A137" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B137" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="D137" s="131" t="s">
-        <v>3130</v>
-      </c>
-      <c r="I137" s="131" t="s">
-        <v>2471</v>
-      </c>
-      <c r="J137" s="131" t="s">
-        <v>2539</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="138" customFormat="1">
-      <c r="A138" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B138" s="138" t="s">
-        <v>2877</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" s="131" customFormat="1">
-      <c r="A139" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B139" s="131" t="s">
-        <v>2842</v>
-      </c>
-      <c r="C139" s="131" t="s">
-        <v>3131</v>
-      </c>
-      <c r="D139" s="131" t="s">
-        <v>3132</v>
-      </c>
-      <c r="F139" s="131" t="s">
-        <v>3133</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="131" customFormat="1">
-      <c r="A140" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B140" s="131" t="s">
-        <v>2845</v>
-      </c>
-      <c r="C140" s="131" t="s">
-        <v>3134</v>
-      </c>
-      <c r="D140" s="131" t="s">
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="131" customFormat="1">
-      <c r="A141" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B141" s="131" t="s">
-        <v>2830</v>
-      </c>
-      <c r="C141" s="131" t="s">
-        <v>2830</v>
-      </c>
-      <c r="D141" s="131" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="131" customFormat="1">
-      <c r="A142" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B142" s="131" t="s">
-        <v>2840</v>
-      </c>
-      <c r="C142" s="131" t="s">
-        <v>2840</v>
-      </c>
-      <c r="D142" s="131" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" s="131" customFormat="1">
-      <c r="A143" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B143" s="131" t="s">
-        <v>2841</v>
-      </c>
-      <c r="C143" s="131" t="s">
-        <v>2841</v>
-      </c>
-      <c r="D143" s="131" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="131" customFormat="1">
-      <c r="A144" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B144" s="131" t="s">
-        <v>2821</v>
-      </c>
-      <c r="C144" s="131" t="s">
-        <v>3139</v>
-      </c>
-      <c r="D144" s="131" t="s">
-        <v>3140</v>
-      </c>
-      <c r="F144" s="131" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="131" customFormat="1">
-      <c r="A145" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B145" s="131" t="s">
-        <v>2829</v>
-      </c>
-      <c r="C145" s="131" t="s">
-        <v>3141</v>
-      </c>
-      <c r="D145" s="131" t="s">
-        <v>3142</v>
-      </c>
-      <c r="E145" s="142"/>
-      <c r="F145" s="142"/>
-      <c r="G145" s="131" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="138" customFormat="1">
-      <c r="A146" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B146" s="138" t="s">
-        <v>2901</v>
-      </c>
-      <c r="D146" s="138" t="s">
-        <v>3144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="131" customFormat="1">
-      <c r="A147" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B147" s="131" t="s">
-        <v>2882</v>
-      </c>
-      <c r="C147" s="131" t="s">
-        <v>3145</v>
-      </c>
-      <c r="E147" s="131" t="s">
-        <v>3146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="131" customFormat="1">
-      <c r="A148" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B148" s="131" t="s">
-        <v>2883</v>
-      </c>
-      <c r="C148" s="131" t="s">
-        <v>3147</v>
-      </c>
-      <c r="E148" s="131" t="s">
-        <v>3148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="131" customFormat="1">
-      <c r="A149" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B149" s="131" t="s">
-        <v>2863</v>
-      </c>
-      <c r="C149" s="131" t="s">
-        <v>3149</v>
-      </c>
-      <c r="E149" s="131" t="s">
-        <v>3150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="131" customFormat="1">
-      <c r="A150" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B150" s="131" t="s">
-        <v>2867</v>
-      </c>
-      <c r="C150" s="131" t="s">
-        <v>3151</v>
-      </c>
-      <c r="E150" s="131" t="s">
-        <v>3152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="138" customFormat="1">
-      <c r="A151" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B151" s="138" t="s">
-        <v>2869</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="138" customFormat="1">
-      <c r="A152" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B152" s="138" t="s">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="131" customFormat="1">
-      <c r="A153" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B153" s="131" t="s">
-        <v>2858</v>
-      </c>
-      <c r="C153" s="131" t="s">
-        <v>3153</v>
-      </c>
-      <c r="E153" s="131" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="131" customFormat="1">
-      <c r="A154" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B154" s="131" t="s">
-        <v>2865</v>
-      </c>
-      <c r="C154" s="131" t="s">
-        <v>3155</v>
-      </c>
-      <c r="E154" s="131" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="131" customFormat="1">
-      <c r="A155" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B155" s="131" t="s">
-        <v>2861</v>
-      </c>
-      <c r="C155" s="131" t="s">
-        <v>3157</v>
-      </c>
-      <c r="E155" s="131" t="s">
-        <v>3158</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="138" customFormat="1">
-      <c r="A156" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B156" s="138" t="s">
-        <v>2860</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="131" customFormat="1">
-      <c r="A157" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B157" s="131" t="s">
-        <v>2866</v>
-      </c>
-      <c r="C157" s="131" t="s">
-        <v>3159</v>
-      </c>
-      <c r="E157" s="131" t="s">
-        <v>3160</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="131" customFormat="1">
-      <c r="A158" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B158" s="131" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C158" s="131" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E158" s="131" t="s">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="131" customFormat="1">
-      <c r="A159" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B159" s="131" t="s">
-        <v>2884</v>
-      </c>
-      <c r="C159" s="131" t="s">
-        <v>3163</v>
-      </c>
-      <c r="E159" s="131" t="s">
-        <v>3164</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="131" customFormat="1">
-      <c r="A160" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B160" s="131" t="s">
-        <v>2859</v>
-      </c>
-      <c r="C160" s="131" t="s">
-        <v>3165</v>
-      </c>
-      <c r="E160" s="131" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="131" customFormat="1">
-      <c r="A161" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B161" s="131" t="s">
-        <v>2833</v>
-      </c>
-      <c r="C161" s="131" t="s">
-        <v>2833</v>
-      </c>
-      <c r="E161" s="131" t="s">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="131" customFormat="1">
-      <c r="A162" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B162" s="131" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C162" s="131" t="s">
-        <v>2827</v>
-      </c>
-      <c r="E162" s="131" t="s">
-        <v>3168</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="131" customFormat="1">
-      <c r="A163" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B163" s="131" t="s">
-        <v>2843</v>
-      </c>
-      <c r="C163" s="131" t="s">
-        <v>2843</v>
-      </c>
-      <c r="E163" s="131" t="s">
-        <v>3169</v>
-      </c>
-      <c r="G163" s="137"/>
-    </row>
-    <row r="164" spans="1:7" s="131" customFormat="1">
-      <c r="A164" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B164" s="131" t="s">
-        <v>2844</v>
-      </c>
-      <c r="C164" s="131" t="s">
-        <v>2844</v>
-      </c>
-      <c r="E164" s="131" t="s">
-        <v>3170</v>
-      </c>
-      <c r="G164" s="137"/>
-    </row>
-    <row r="165" spans="1:7" s="131" customFormat="1">
-      <c r="A165" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B165" s="131" t="s">
-        <v>2838</v>
-      </c>
-      <c r="C165" s="131" t="s">
-        <v>2838</v>
-      </c>
-      <c r="E165" s="131" t="s">
-        <v>3171</v>
-      </c>
-      <c r="F165" s="131" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="131" customFormat="1">
-      <c r="A166" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B166" s="131" t="s">
-        <v>2846</v>
-      </c>
-      <c r="C166" s="131" t="s">
-        <v>2846</v>
-      </c>
-      <c r="E166" s="131" t="s">
-        <v>3173</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="131" customFormat="1">
-      <c r="A167" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B167" s="131" t="s">
-        <v>2847</v>
-      </c>
-      <c r="C167" s="131" t="s">
-        <v>2847</v>
-      </c>
-      <c r="E167" s="131" t="s">
-        <v>3174</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="131" customFormat="1">
-      <c r="A168" s="131" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B168" s="131" t="s">
-        <v>2849</v>
-      </c>
-      <c r="C168" s="131" t="s">
-        <v>2849</v>
-      </c>
-      <c r="E168" s="131" t="s">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="138" customFormat="1">
-      <c r="A169" s="138" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B169" s="138" t="s">
-        <v>2902</v>
-      </c>
-      <c r="C169" s="138" t="s">
-        <v>2902</v>
-      </c>
-      <c r="D169" s="138" t="s">
-        <v>3176</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="26" style="7" customWidth="1"/>
-    <col min="2" max="3" width="32.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="21" style="7" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="56" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="130" customFormat="1" ht="18">
-      <c r="A1" s="130" t="s">
-        <v>2687</v>
-      </c>
-      <c r="B1" s="147" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C1" s="130" t="s">
-        <v>3225</v>
-      </c>
-      <c r="D1" s="130" t="s">
-        <v>3226</v>
-      </c>
-      <c r="E1" s="130" t="s">
-        <v>2975</v>
-      </c>
-      <c r="F1" s="130" t="s">
-        <v>2816</v>
-      </c>
-      <c r="G1" s="130" t="s">
-        <v>2976</v>
-      </c>
-      <c r="H1" s="130" t="s">
-        <v>2959</v>
-      </c>
-      <c r="I1" s="130" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="131" customFormat="1">
-      <c r="A2" s="131" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>3227</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D2" s="131" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E2" s="131" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="131" customFormat="1">
-      <c r="A3" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>3227</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D3" s="131" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E3" s="131" t="s">
-        <v>2848</v>
-      </c>
-      <c r="F3" s="131" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="131" customFormat="1">
-      <c r="A4" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>2981</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>3233</v>
-      </c>
-      <c r="D4" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E4" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="F4" s="131" t="s">
-        <v>2822</v>
-      </c>
-      <c r="G4" s="131" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="131" customFormat="1">
-      <c r="A5" s="131" t="s">
-        <v>577</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>3234</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>577</v>
-      </c>
-      <c r="G5" s="133" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="131" customFormat="1">
-      <c r="A6" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>3230</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>3235</v>
-      </c>
-      <c r="D6" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E6" s="131" t="s">
-        <v>3013</v>
-      </c>
-      <c r="F6" s="133" t="s">
-        <v>3014</v>
-      </c>
-      <c r="G6" s="133" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="131" customFormat="1">
-      <c r="A7" s="131" t="s">
-        <v>2950</v>
-      </c>
-      <c r="B7" s="131" t="s">
-        <v>2983</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3207</v>
-      </c>
-      <c r="D7" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E7" s="131" t="s">
-        <v>2950</v>
-      </c>
-      <c r="F7" s="131" t="s">
-        <v>2983</v>
-      </c>
-      <c r="G7" s="131" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="131" customFormat="1">
-      <c r="A8" s="131" t="s">
-        <v>2934</v>
-      </c>
-      <c r="B8" s="131" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D8" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E8" s="131" t="s">
-        <v>2934</v>
-      </c>
-      <c r="F8" s="131" t="s">
-        <v>2986</v>
-      </c>
-      <c r="G8" s="131" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="131" customFormat="1">
-      <c r="A9" s="131" t="s">
-        <v>2919</v>
-      </c>
-      <c r="B9" s="131" t="s">
-        <v>3057</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3205</v>
-      </c>
-      <c r="D9" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E9" s="131" t="s">
-        <v>2919</v>
-      </c>
-      <c r="F9" s="131" t="s">
-        <v>3054</v>
-      </c>
-      <c r="H9" s="137" t="s">
-        <v>3055</v>
-      </c>
-      <c r="I9" s="137"/>
-    </row>
-    <row r="10" spans="1:9" s="131" customFormat="1">
-      <c r="A10" s="131" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B10" s="131" t="s">
-        <v>2990</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3204</v>
-      </c>
-      <c r="D10" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>2936</v>
-      </c>
-      <c r="F10" s="131" t="s">
-        <v>2990</v>
-      </c>
-      <c r="G10" s="131" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="131" customFormat="1">
-      <c r="A11" s="131" t="s">
-        <v>2925</v>
-      </c>
-      <c r="B11" s="131" t="s">
-        <v>3203</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3202</v>
-      </c>
-      <c r="D11" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>3019</v>
-      </c>
-      <c r="F11" s="131" t="s">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="131" customFormat="1">
-      <c r="A12" s="131" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B12" s="131" t="s">
-        <v>3201</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3200</v>
-      </c>
-      <c r="D12" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E12" s="131" t="s">
-        <v>2930</v>
-      </c>
-      <c r="F12" s="131" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="131" customFormat="1">
-      <c r="A13" s="131" t="s">
-        <v>2947</v>
-      </c>
-      <c r="B13" s="131" t="s">
-        <v>2947</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3199</v>
-      </c>
-      <c r="D13" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E13" s="131" t="s">
-        <v>2947</v>
-      </c>
-      <c r="F13" s="131" t="s">
-        <v>2992</v>
-      </c>
-      <c r="G13" s="131" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="131" customFormat="1">
-      <c r="A14" s="131" t="s">
-        <v>2914</v>
-      </c>
-      <c r="B14" s="131" t="s">
-        <v>3182</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3181</v>
-      </c>
-      <c r="D14" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E14" s="131" t="s">
-        <v>2914</v>
-      </c>
-      <c r="F14" s="131" t="s">
-        <v>3058</v>
-      </c>
-      <c r="H14" s="131" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="131" customFormat="1">
-      <c r="A15" s="131" t="s">
-        <v>2920</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>3180</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3179</v>
-      </c>
-      <c r="D15" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E15" s="131" t="s">
-        <v>3061</v>
-      </c>
-      <c r="F15" s="131" t="s">
-        <v>3062</v>
-      </c>
-      <c r="G15" s="131" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="131" customFormat="1">
-      <c r="A16" s="131" t="s">
-        <v>2917</v>
-      </c>
-      <c r="B16" s="131" t="s">
-        <v>3178</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3177</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>3064</v>
-      </c>
-      <c r="F16" s="131" t="s">
-        <v>3065</v>
-      </c>
-      <c r="G16" s="131" t="s">
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="131" customFormat="1">
-      <c r="A17" s="131" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B17" s="131" t="s">
-        <v>2995</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3223</v>
-      </c>
-      <c r="D17" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E17" s="131" t="s">
-        <v>2948</v>
-      </c>
-      <c r="F17" s="131" t="s">
-        <v>2995</v>
-      </c>
-      <c r="G17" s="131" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="131" customFormat="1">
-      <c r="A18" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="B18" s="131" t="s">
-        <v>3222</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3221</v>
-      </c>
-      <c r="D18" s="131" t="s">
-        <v>3228</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>2924</v>
-      </c>
-      <c r="F18" s="131" t="s">
-        <v>3026</v>
-      </c>
-      <c r="H18" s="137" t="s">
-        <v>2960</v>
-      </c>
-      <c r="I18" s="137"/>
-    </row>
-    <row r="19" spans="1:9" s="131" customFormat="1">
-      <c r="A19" s="131" t="s">
-        <v>2916</v>
-      </c>
-      <c r="B19" s="131" t="s">
-        <v>3220</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3219</v>
-      </c>
-      <c r="D19" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E19" s="131" t="s">
-        <v>2916</v>
-      </c>
-      <c r="F19" s="131" t="s">
-        <v>3069</v>
-      </c>
-      <c r="G19" s="131" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="131" customFormat="1">
-      <c r="A20" s="131" t="s">
-        <v>2937</v>
-      </c>
-      <c r="B20" s="131" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>2937</v>
-      </c>
-      <c r="F20" s="131" t="s">
-        <v>2937</v>
-      </c>
-      <c r="G20" s="131" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="131" customFormat="1">
-      <c r="A21" s="131" t="s">
-        <v>2938</v>
-      </c>
-      <c r="B21" s="131" t="s">
-        <v>3216</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D21" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E21" s="131" t="s">
-        <v>2938</v>
-      </c>
-      <c r="F21" s="131" t="s">
-        <v>2938</v>
-      </c>
-      <c r="G21" s="131" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="131" customFormat="1">
-      <c r="A22" s="131" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B22" s="131" t="s">
-        <v>3214</v>
-      </c>
-      <c r="C22" t="s">
-        <v>3213</v>
-      </c>
-      <c r="D22" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E22" s="131" t="s">
-        <v>2939</v>
-      </c>
-      <c r="F22" s="133" t="s">
-        <v>2939</v>
-      </c>
-      <c r="G22" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="131" customFormat="1">
-      <c r="A23" s="131" t="s">
-        <v>2940</v>
-      </c>
-      <c r="B23" s="131" t="s">
-        <v>3212</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3211</v>
-      </c>
-      <c r="D23" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E23" s="131" t="s">
-        <v>2940</v>
-      </c>
-      <c r="F23" s="133" t="s">
-        <v>2940</v>
-      </c>
-      <c r="G23" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="131" customFormat="1">
-      <c r="A24" s="131" t="s">
-        <v>2941</v>
-      </c>
-      <c r="B24" s="131" t="s">
-        <v>3198</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3197</v>
-      </c>
-      <c r="D24" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E24" s="131" t="s">
-        <v>2941</v>
-      </c>
-      <c r="F24" s="133" t="s">
-        <v>2941</v>
-      </c>
-      <c r="G24" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="131" customFormat="1">
-      <c r="A25" s="131" t="s">
-        <v>2942</v>
-      </c>
-      <c r="B25" s="131" t="s">
-        <v>3196</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3195</v>
-      </c>
-      <c r="D25" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E25" s="131" t="s">
-        <v>2942</v>
-      </c>
-      <c r="F25" s="133" t="s">
-        <v>2942</v>
-      </c>
-      <c r="G25" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="131" customFormat="1">
-      <c r="A26" s="131" t="s">
-        <v>2943</v>
-      </c>
-      <c r="B26" s="131" t="s">
-        <v>3194</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3193</v>
-      </c>
-      <c r="D26" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E26" s="131" t="s">
-        <v>2943</v>
-      </c>
-      <c r="F26" s="133" t="s">
-        <v>2943</v>
-      </c>
-      <c r="G26" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="131" customFormat="1">
-      <c r="A27" s="131" t="s">
-        <v>2944</v>
-      </c>
-      <c r="B27" s="131" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C27" t="s">
-        <v>3191</v>
-      </c>
-      <c r="D27" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E27" s="131" t="s">
-        <v>2944</v>
-      </c>
-      <c r="F27" s="133" t="s">
-        <v>2944</v>
-      </c>
-      <c r="G27" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="131" customFormat="1">
-      <c r="A28" s="131" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B28" s="131" t="s">
-        <v>3192</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3190</v>
-      </c>
-      <c r="D28" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E28" s="131" t="s">
-        <v>2945</v>
-      </c>
-      <c r="F28" s="133" t="s">
-        <v>2945</v>
-      </c>
-      <c r="G28" s="133" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="131" customFormat="1">
-      <c r="A29" s="131" t="s">
-        <v>2949</v>
-      </c>
-      <c r="B29" s="133" t="s">
-        <v>3005</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3189</v>
-      </c>
-      <c r="D29" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E29" s="131" t="s">
-        <v>2949</v>
-      </c>
-      <c r="F29" s="133" t="s">
-        <v>3005</v>
-      </c>
-      <c r="G29" s="133" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="131" customFormat="1">
-      <c r="A30" s="131" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B30" s="131" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3188</v>
-      </c>
-      <c r="D30" s="131" t="s">
-        <v>3231</v>
-      </c>
-      <c r="E30" s="131" t="s">
-        <v>3070</v>
-      </c>
-      <c r="F30" s="131" t="s">
-        <v>3071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="131" customFormat="1">
-      <c r="A31" s="131" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B31" s="131" t="s">
-        <v>3032</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D31" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E31" s="131" t="s">
-        <v>3032</v>
-      </c>
-      <c r="F31" s="131" t="s">
-        <v>3033</v>
-      </c>
-      <c r="G31" s="131" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="131" customFormat="1">
-      <c r="A32" s="131" t="s">
-        <v>2913</v>
-      </c>
-      <c r="B32" s="131" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3185</v>
-      </c>
-      <c r="D32" s="131" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E32" s="131" t="s">
-        <v>3035</v>
-      </c>
-      <c r="F32" s="131" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="131" customFormat="1">
-      <c r="A33" s="131" t="s">
-        <v>2929</v>
-      </c>
-      <c r="B33" s="131" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C33" t="s">
-        <v>3183</v>
-      </c>
-      <c r="D33" s="131" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E33" s="131" t="s">
-        <v>2929</v>
-      </c>
-      <c r="F33" s="131" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="131" customFormat="1">
-      <c r="A34" s="131" t="s">
-        <v>2911</v>
-      </c>
-      <c r="B34" s="131" t="s">
-        <v>3184</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3183</v>
-      </c>
-      <c r="D34" s="131" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E34" s="131" t="s">
-        <v>2911</v>
-      </c>
-      <c r="F34" s="131" t="s">
-        <v>3075</v>
-      </c>
-      <c r="I34" s="131" t="s">
-        <v>3076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="131" customFormat="1">
-      <c r="A35" s="131" t="s">
-        <v>2946</v>
-      </c>
-      <c r="B35" s="143" t="s">
-        <v>3009</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3210</v>
-      </c>
-      <c r="D35" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E35" s="131" t="s">
-        <v>2946</v>
-      </c>
-      <c r="F35" s="143" t="s">
-        <v>3009</v>
-      </c>
-      <c r="G35" s="143" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="131" customFormat="1">
-      <c r="A36" s="131" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B36" s="131" t="s">
-        <v>3044</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D36" s="131" t="s">
-        <v>3229</v>
-      </c>
-      <c r="E36" s="131" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F36" s="131" t="s">
-        <v>3045</v>
-      </c>
-      <c r="G36" s="131" t="s">
-        <v>3046</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="131" customFormat="1">
-      <c r="A37" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B37" s="131" t="s">
-        <v>3051</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3208</v>
-      </c>
-      <c r="D37" s="131" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E37" s="131" t="s">
-        <v>2923</v>
-      </c>
-      <c r="F37" s="131" t="s">
-        <v>3047</v>
-      </c>
-      <c r="G37" s="131" t="s">
-        <v>3048</v>
-      </c>
-      <c r="I37" s="131" t="s">
-        <v>3049</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="131" customFormat="1">
-      <c r="A38" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B38" s="144" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="131" t="s">
-        <v>2823</v>
-      </c>
-      <c r="F38" s="131" t="s">
-        <v>3073</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="131" customFormat="1">
-      <c r="A39" s="131" t="s">
-        <v>2922</v>
-      </c>
-      <c r="B39" s="144" t="s">
-        <v>2469</v>
-      </c>
-      <c r="E39" s="131" t="s">
-        <v>3039</v>
-      </c>
-      <c r="F39" s="131" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="131" customFormat="1">
-      <c r="A40" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B40" s="144" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="131" t="s">
-        <v>2818</v>
-      </c>
-      <c r="F40" s="131" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="131" customFormat="1">
-      <c r="A41" s="131" t="s">
-        <v>2912</v>
-      </c>
-      <c r="B41" s="144" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="131" t="s">
-        <v>2912</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>3053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="145"/>
-      <c r="B44" s="146" t="s">
-        <v>3236</v>
-      </c>
-      <c r="C44" s="149"/>
+        <v>2973</v>
+      </c>
+      <c r="K81" s="131"/>
+      <c r="L81" s="131"/>
+      <c r="M81" s="131"/>
+      <c r="N81" s="131"/>
+      <c r="O81" s="131"/>
+      <c r="P81" s="131"/>
+      <c r="Q81" s="131"/>
+      <c r="R81" s="131"/>
+      <c r="S81" s="131"/>
+      <c r="T81" s="131"/>
+      <c r="U81" s="131"/>
+      <c r="V81" s="131"/>
+      <c r="W81" s="131"/>
+      <c r="X81" s="131"/>
+      <c r="Y81" s="131"/>
+      <c r="Z81" s="131"/>
+      <c r="AA81" s="131"/>
+      <c r="AB81" s="131"/>
+      <c r="AC81" s="131"/>
+      <c r="AD81" s="131"/>
+      <c r="AE81" s="131"/>
+      <c r="AF81" s="131"/>
+      <c r="AG81" s="131"/>
+      <c r="AH81" s="131"/>
+      <c r="AI81" s="131"/>
+      <c r="AJ81" s="131"/>
+      <c r="AK81" s="131"/>
+      <c r="AL81" s="131"/>
+      <c r="AM81" s="131"/>
+      <c r="AN81" s="131"/>
+      <c r="AO81" s="131"/>
+      <c r="AP81" s="131"/>
+      <c r="AQ81" s="131"/>
+      <c r="AR81" s="131"/>
+      <c r="AS81" s="131"/>
+      <c r="AT81" s="131"/>
+      <c r="AU81" s="131"/>
+      <c r="AV81" s="131"/>
+      <c r="AW81" s="131"/>
+      <c r="AX81" s="131"/>
+      <c r="AY81" s="131"/>
+      <c r="AZ81" s="131"/>
+      <c r="BA81" s="131"/>
+      <c r="BB81" s="131"/>
+      <c r="BC81" s="131"/>
+      <c r="BD81" s="131"/>
+      <c r="BE81" s="131"/>
+      <c r="BF81" s="131"/>
+      <c r="BG81" s="131"/>
+      <c r="BH81" s="131"/>
+      <c r="BI81" s="131"/>
+      <c r="BJ81" s="131"/>
+      <c r="BK81" s="131"/>
+      <c r="BL81" s="131"/>
+      <c r="BM81" s="131"/>
+      <c r="BN81" s="131"/>
+      <c r="BO81" s="131"/>
+      <c r="BP81" s="131"/>
+      <c r="BQ81" s="131"/>
+      <c r="BR81" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -50655,10 +49102,10 @@
         <v>1665</v>
       </c>
       <c r="D12" t="s">
-        <v>2970</v>
+        <v>2872</v>
       </c>
       <c r="E12" t="s">
-        <v>2969</v>
+        <v>2871</v>
       </c>
       <c r="F12" s="94" t="s">
         <v>1774</v>
@@ -50768,7 +49215,7 @@
         <v>942</v>
       </c>
       <c r="E16" t="s">
-        <v>2973</v>
+        <v>2875</v>
       </c>
       <c r="F16" s="94" t="s">
         <v>1774</v>
@@ -58547,10 +56994,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18">
       <c r="A1" t="s">
-        <v>2971</v>
+        <v>2873</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2972</v>
+        <v>2874</v>
       </c>
       <c r="C1" s="129" t="s">
         <v>1766</v>
@@ -58665,10 +57112,10 @@
         <v>2512</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2970</v>
+        <v>2872</v>
       </c>
       <c r="C12" t="s">
-        <v>2969</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -58710,7 +57157,7 @@
         <v>942</v>
       </c>
       <c r="C16" t="s">
-        <v>2973</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="17" spans="1:3">
